--- a/OTCRecommendations.xlsx
+++ b/OTCRecommendations.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amirbhd/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C67111B-3B7D-3242-8AC1-18B11E2A077A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41C05540-CEA8-0B49-AF53-93D8B3F3491E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GERD" sheetId="3" r:id="rId1"/>
     <sheet name="Allergies" sheetId="4" r:id="rId2"/>
-    <sheet name="Pain Control" sheetId="5" r:id="rId3"/>
+    <sheet name="Pain_Control" sheetId="5" r:id="rId3"/>
     <sheet name="Constipation" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="54">
   <si>
     <t xml:space="preserve">Question </t>
   </si>
@@ -62,15 +62,6 @@
   </si>
   <si>
     <t>Question 9</t>
-  </si>
-  <si>
-    <t>Question 10</t>
-  </si>
-  <si>
-    <t>Question 11</t>
-  </si>
-  <si>
-    <t>Question 12</t>
   </si>
   <si>
     <t>How frequently do you experience GERD symptoms?</t>
@@ -214,18 +205,21 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -234,17 +228,20 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF4A86E8"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -252,6 +249,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -262,6 +260,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -600,9 +599,7 @@
   </sheetPr>
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -623,40 +620,40 @@
         <v>2</v>
       </c>
       <c r="D1" s="23" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1">
       <c r="A2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1">
       <c r="A3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1">
       <c r="A4" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>5</v>
@@ -665,12 +662,12 @@
         <v>6</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>5</v>
@@ -679,48 +676,32 @@
         <v>6</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A6" s="1"/>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
+      <c r="A7" s="1"/>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="A8" s="1"/>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A9" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="A9" s="1"/>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A10" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="A10" s="1"/>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A11" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="A11" s="1"/>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A12" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="A12" s="1"/>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A13" s="1" t="s">
-        <v>15</v>
-      </c>
+      <c r="A13" s="1"/>
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1">
       <c r="A15" s="3"/>
@@ -817,8 +798,8 @@
   </sheetPr>
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -841,7 +822,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1">
@@ -851,47 +832,55 @@
       <c r="B2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="10"/>
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="D2" s="11" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E2" s="10"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="10"/>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="D3" s="11" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="10"/>
+        <v>28</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="D4" s="11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E4" s="10"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="10"/>
+      <c r="C5" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="D5" s="12">
         <v>8</v>
       </c>
@@ -899,12 +888,14 @@
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="A6" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="10"/>
+      <c r="C6" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="D6" s="13">
         <v>45054</v>
       </c>
@@ -912,14 +903,16 @@
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="A7" s="9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="10"/>
+      <c r="C7" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="D7" s="11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E7" s="10"/>
     </row>
@@ -930,116 +923,114 @@
       <c r="B8" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="10"/>
+      <c r="C8" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="D8" s="11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E8" s="11"/>
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1">
       <c r="A9" s="9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="10"/>
+      <c r="C9" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="D9" s="11"/>
       <c r="E9" s="10"/>
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1">
       <c r="A10" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="10"/>
+      <c r="C10" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="D10" s="11"/>
       <c r="E10" s="10"/>
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1">
       <c r="A11" s="9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="10"/>
+      <c r="C11" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="D11" s="11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E11" s="10"/>
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1">
       <c r="A12" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
+        <v>39</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="D12" s="11" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E12" s="10"/>
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A13" s="9" t="s">
-        <v>9</v>
-      </c>
+      <c r="A13" s="9"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
       <c r="D13" s="11"/>
       <c r="E13" s="10"/>
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A14" s="9" t="s">
-        <v>10</v>
-      </c>
+      <c r="A14" s="9"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
       <c r="D14" s="11"/>
       <c r="E14" s="10"/>
     </row>
     <row r="15" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A15" s="9" t="s">
-        <v>11</v>
-      </c>
+      <c r="A15" s="9"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
       <c r="D15" s="11"/>
       <c r="E15" s="10"/>
     </row>
     <row r="16" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A16" s="9" t="s">
-        <v>12</v>
-      </c>
+      <c r="A16" s="9"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
       <c r="D16" s="11"/>
       <c r="E16" s="10"/>
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A17" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="A17" s="9"/>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
       <c r="D17" s="11"/>
       <c r="E17" s="10"/>
     </row>
     <row r="18" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A18" s="9" t="s">
-        <v>14</v>
-      </c>
+      <c r="A18" s="9"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
       <c r="D18" s="11"/>
       <c r="E18" s="10"/>
     </row>
     <row r="19" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A19" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="A19" s="9"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
       <c r="D19" s="11"/>
@@ -1198,7 +1189,7 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1214,7 +1205,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1250,7 +1241,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="24" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1">
@@ -1264,7 +1255,7 @@
         <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1">
@@ -1278,12 +1269,12 @@
         <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>5</v>
@@ -1292,7 +1283,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1">
@@ -1363,7 +1354,7 @@
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>5</v>
@@ -1372,13 +1363,13 @@
         <v>6</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>5</v>
@@ -1387,12 +1378,12 @@
         <v>6</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>5</v>
@@ -1401,12 +1392,12 @@
         <v>6</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1">
       <c r="A14" s="22" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>5</v>
@@ -1415,12 +1406,12 @@
         <v>6</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1">
       <c r="A15" s="22" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>5</v>
@@ -1429,12 +1420,12 @@
         <v>6</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1">
       <c r="A16" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>5</v>
@@ -1443,12 +1434,12 @@
         <v>6</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1">
       <c r="A17" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>5</v>
@@ -1457,12 +1448,12 @@
         <v>6</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>5</v>
@@ -1471,12 +1462,12 @@
         <v>6</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1">
       <c r="A19" s="22" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>5</v>
@@ -1485,7 +1476,7 @@
         <v>6</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/OTCRecommendations.xlsx
+++ b/OTCRecommendations.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amirbhd/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41C05540-CEA8-0B49-AF53-93D8B3F3491E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29451470-8FA8-C145-881D-FA9BFF20860F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17400" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GERD" sheetId="3" r:id="rId1"/>
     <sheet name="Allergies" sheetId="4" r:id="rId2"/>
-    <sheet name="Pain_Control" sheetId="5" r:id="rId3"/>
+    <sheet name="Pain Control" sheetId="5" r:id="rId3"/>
     <sheet name="Constipation" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
@@ -798,7 +798,7 @@
   </sheetPr>
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
@@ -1188,8 +1188,8 @@
   </sheetPr>
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>

--- a/OTCRecommendations.xlsx
+++ b/OTCRecommendations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amirbhd/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29451470-8FA8-C145-881D-FA9BFF20860F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF30D0CF-EAE3-1149-8130-02152EA42EDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17400" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17400" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GERD" sheetId="3" r:id="rId1"/>
@@ -23,10 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="54">
-  <si>
-    <t xml:space="preserve">Question </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="75">
   <si>
     <t>Option 1</t>
   </si>
@@ -73,9 +70,6 @@
     <t>Occasionally (less than twice per week)</t>
   </si>
   <si>
-    <t>Omeprazole, Esomeprazole, Ranitidine, Famotidine</t>
-  </si>
-  <si>
     <t>On a scale of 1-10, how severe are your GERD symptoms?</t>
   </si>
   <si>
@@ -85,18 +79,6 @@
     <t>5-10 (severe)</t>
   </si>
   <si>
-    <t>Ranitidine, Famotidine, Calcium Carbonate, Magnesium Hydroxide</t>
-  </si>
-  <si>
-    <t>Do you need immediate relief for your symptoms?</t>
-  </si>
-  <si>
-    <t>Calcium Carbonate, Magnesium Hydroxide</t>
-  </si>
-  <si>
-    <t>Are you pregnant or planning to become pregnant?</t>
-  </si>
-  <si>
     <t>1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13</t>
   </si>
   <si>
@@ -109,18 +91,9 @@
     <t>Is the patient under 2 years old?</t>
   </si>
   <si>
-    <t xml:space="preserve">Yes </t>
-  </si>
-  <si>
     <t>NONE</t>
   </si>
   <si>
-    <t>Is the patient at least 2 years old, but under 12 years old?</t>
-  </si>
-  <si>
-    <t>Is the patient at least 4 years old, but under 12 years old?</t>
-  </si>
-  <si>
     <t>Is the patient at least 6 years old, but under 12 years old?</t>
   </si>
   <si>
@@ -142,9 +115,6 @@
     <t>1, 2, 6, 11, 12</t>
   </si>
   <si>
-    <t>Do you have cataracts or glaucoma?</t>
-  </si>
-  <si>
     <t>Psyllium, Methylcellulose, Polycarbophil, Bisacodyl, Senna, Polyethylene glycol, Docusate, Magnesium citrate, Mineral oil, Glycerin suppositories, Saline enemas</t>
   </si>
   <si>
@@ -185,15 +155,105 @@
   </si>
   <si>
     <t>options</t>
+  </si>
+  <si>
+    <t>1, 2</t>
+  </si>
+  <si>
+    <t>Are your symptoms of GERD the worst during the night?</t>
+  </si>
+  <si>
+    <t>3, 4, 5</t>
+  </si>
+  <si>
+    <t>Do you need prompt, immediate relief for your symptoms?</t>
+  </si>
+  <si>
+    <t>4, 5</t>
+  </si>
+  <si>
+    <t>Do you ever experience trouble or pain when swallowing food?</t>
+  </si>
+  <si>
+    <t>Are you experiencing vomiting with blood?</t>
+  </si>
+  <si>
+    <t>Are you experiencing black or bloody stools</t>
+  </si>
+  <si>
+    <t>Do you suffer from anemia, or low levels of iron?</t>
+  </si>
+  <si>
+    <t>Do you have kidney disease?</t>
+  </si>
+  <si>
+    <t>1, 2, 5</t>
+  </si>
+  <si>
+    <t>Are you taking medications for anxiety or insomnia, such as benzodiazepines?</t>
+  </si>
+  <si>
+    <t>1, 2, 4, 5</t>
+  </si>
+  <si>
+    <t>Are you taking clopidogrel (Plavix) or other antiplatelet medications?</t>
+  </si>
+  <si>
+    <t>Are you currently taking any medications that contain rilpivirine, an HIV-1 treatment drug?</t>
+  </si>
+  <si>
+    <t>Yes </t>
+  </si>
+  <si>
+    <t>Is the patient at least 2 years old, but under 4 years old?</t>
+  </si>
+  <si>
+    <t>Is the patient at least 4 years old, but under 6 years old?</t>
+  </si>
+  <si>
+    <t>5, 8</t>
+  </si>
+  <si>
+    <t>Are you breastfeeding?</t>
+  </si>
+  <si>
+    <t>Do you have liver disease?</t>
+  </si>
+  <si>
+    <t>1, 2, 8, 9, 10, 11, 12, 13</t>
+  </si>
+  <si>
+    <t>Do you you kidney disease?</t>
+  </si>
+  <si>
+    <t>5, 8, 9, 10, 13</t>
+  </si>
+  <si>
+    <t>Do you have uncontrolled asthma? (wheezing, frequent shortness of breath, difficulty breathing, or a recent hospitalization due to asthma)</t>
+  </si>
+  <si>
+    <t>Do you have facial pain, fever, or earache?</t>
+  </si>
+  <si>
+    <t>Do you have reoccurring nose bleeds?</t>
+  </si>
+  <si>
+    <t>Have you had any allergies to over the counter medications that treat allergies in the past?</t>
+  </si>
+  <si>
+    <t>Do you have urinary retention?</t>
+  </si>
+  <si>
+    <t>Do you have glaucoma?</t>
+  </si>
+  <si>
+    <t>Question</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m\,\ d"/>
-  </numFmts>
   <fonts count="12">
     <font>
       <sz val="10"/>
@@ -265,13 +325,12 @@
     <font>
       <b/>
       <sz val="10"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -317,7 +376,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -344,12 +403,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -599,11 +652,13 @@
   </sheetPr>
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="29.6640625" customWidth="1"/>
+    <col min="1" max="1" width="71.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.1640625" customWidth="1"/>
     <col min="3" max="3" width="21.5" customWidth="1"/>
     <col min="4" max="4" width="40.1640625" customWidth="1"/>
@@ -611,97 +666,185 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A2" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A3" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A4" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A5" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A6" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A7" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A8" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A9" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A10" s="22" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A10" s="1"/>
+      <c r="B10" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A11" s="1"/>
+      <c r="A11" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A12" s="1"/>
+      <c r="A12" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A13" s="1"/>
+      <c r="A13" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1">
       <c r="A15" s="3"/>
@@ -798,9 +941,7 @@
   </sheetPr>
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -812,235 +953,303 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="D1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="24" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A2" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>24</v>
+      <c r="B2" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>18</v>
       </c>
       <c r="E2" s="10"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A3" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>26</v>
+      <c r="A3" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>20</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="10"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A5" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="22">
+        <v>8</v>
+      </c>
+      <c r="E5" s="10"/>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A6" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" s="10"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A7" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="10"/>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A8" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="11"/>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A9" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="10"/>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A10" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="10"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A11" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B11" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="10"/>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A12" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="10"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A13" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="10"/>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A14" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="10"/>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A15" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="10"/>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A16" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="10"/>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A17" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="10"/>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A18" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="11" t="s">
+      <c r="B18" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="10"/>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A5" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="12">
-        <v>8</v>
-      </c>
-      <c r="E5" s="10"/>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A6" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="13">
-        <v>45054</v>
-      </c>
-      <c r="E6" s="10"/>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A7" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="10"/>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A8" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="11"/>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A9" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="10"/>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A10" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="10"/>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A11" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="10"/>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A12" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E12" s="10"/>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A13" s="9"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="10"/>
-    </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A14" s="9"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="10"/>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A15" s="9"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="10"/>
-    </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A16" s="9"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="10"/>
-    </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A17" s="9"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="10"/>
-    </row>
-    <row r="18" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A18" s="9"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="11"/>
       <c r="E18" s="10"/>
     </row>
     <row r="19" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A19" s="9"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="11"/>
+      <c r="A19" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>29</v>
+      </c>
       <c r="E19" s="10"/>
     </row>
     <row r="20" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
+      <c r="A20" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>29</v>
+      </c>
       <c r="E20" s="10"/>
     </row>
     <row r="21" spans="1:6" ht="15.75" customHeight="1">
@@ -1056,125 +1265,125 @@
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
-      <c r="F22" s="14"/>
+      <c r="F22" s="12"/>
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A23" s="15"/>
+      <c r="A23" s="13"/>
       <c r="B23" s="9"/>
-      <c r="C23" s="16"/>
+      <c r="C23" s="14"/>
       <c r="D23" s="11"/>
       <c r="E23" s="9"/>
-      <c r="F23" s="14"/>
+      <c r="F23" s="12"/>
     </row>
     <row r="24" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A24" s="15"/>
+      <c r="A24" s="13"/>
       <c r="B24" s="9"/>
-      <c r="C24" s="16"/>
+      <c r="C24" s="14"/>
       <c r="D24" s="11"/>
       <c r="E24" s="9"/>
-      <c r="F24" s="14"/>
+      <c r="F24" s="12"/>
     </row>
     <row r="25" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A25" s="15"/>
+      <c r="A25" s="13"/>
       <c r="B25" s="9"/>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
       <c r="E25" s="9"/>
-      <c r="F25" s="14"/>
+      <c r="F25" s="12"/>
     </row>
     <row r="26" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A26" s="15"/>
+      <c r="A26" s="13"/>
       <c r="B26" s="9"/>
-      <c r="C26" s="17"/>
+      <c r="C26" s="15"/>
       <c r="D26" s="11"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="14"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="12"/>
     </row>
     <row r="27" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A27" s="15"/>
+      <c r="A27" s="13"/>
       <c r="B27" s="9"/>
-      <c r="C27" s="17"/>
+      <c r="C27" s="15"/>
       <c r="D27" s="11"/>
-      <c r="E27" s="18"/>
-      <c r="F27" s="14"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="12"/>
     </row>
     <row r="28" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A28" s="15"/>
+      <c r="A28" s="13"/>
       <c r="B28" s="9"/>
-      <c r="C28" s="16"/>
+      <c r="C28" s="14"/>
       <c r="D28" s="11"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="14"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="12"/>
     </row>
     <row r="29" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A29" s="15"/>
+      <c r="A29" s="13"/>
       <c r="B29" s="9"/>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="14"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="12"/>
     </row>
     <row r="30" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A30" s="15"/>
+      <c r="A30" s="13"/>
       <c r="B30" s="9"/>
-      <c r="C30" s="17"/>
+      <c r="C30" s="15"/>
       <c r="D30" s="11"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="14"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="12"/>
     </row>
     <row r="31" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A31" s="15"/>
+      <c r="A31" s="13"/>
       <c r="B31" s="9"/>
-      <c r="C31" s="17"/>
+      <c r="C31" s="15"/>
       <c r="D31" s="11"/>
-      <c r="E31" s="18"/>
-      <c r="F31" s="14"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="12"/>
     </row>
     <row r="32" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A32" s="15"/>
+      <c r="A32" s="13"/>
       <c r="B32" s="9"/>
-      <c r="C32" s="17"/>
+      <c r="C32" s="15"/>
       <c r="D32" s="11"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="14"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="12"/>
     </row>
     <row r="33" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A33" s="15"/>
+      <c r="A33" s="13"/>
       <c r="B33" s="9"/>
-      <c r="C33" s="17"/>
+      <c r="C33" s="15"/>
       <c r="D33" s="11"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="14"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="12"/>
     </row>
     <row r="34" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A34" s="15"/>
+      <c r="A34" s="13"/>
       <c r="B34" s="9"/>
-      <c r="C34" s="17"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="14"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="12"/>
     </row>
     <row r="35" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A35" s="15"/>
+      <c r="A35" s="13"/>
       <c r="B35" s="11"/>
-      <c r="C35" s="17"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
     </row>
     <row r="36" spans="1:6" ht="15.75" customHeight="1">
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
     </row>
     <row r="37" spans="1:6" ht="15.75" customHeight="1">
       <c r="A37" s="10"/>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
-      <c r="D37" s="21"/>
+      <c r="D37" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1188,24 +1397,24 @@
   </sheetPr>
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="C1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>53</v>
+      <c r="D1" s="21" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1220,9 +1429,7 @@
   </sheetPr>
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -1231,252 +1438,252 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="C1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="24" t="s">
-        <v>53</v>
+      <c r="D1" s="21" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A14" s="22" t="s">
-        <v>47</v>
+      <c r="A14" s="20" t="s">
+        <v>37</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A15" s="22" t="s">
-        <v>48</v>
+      <c r="A15" s="20" t="s">
+        <v>38</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1">
       <c r="A16" s="2" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1">
       <c r="A17" s="2" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A19" s="22" t="s">
-        <v>52</v>
+      <c r="A19" s="20" t="s">
+        <v>42</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/OTCRecommendations.xlsx
+++ b/OTCRecommendations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amirbhd/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF30D0CF-EAE3-1149-8130-02152EA42EDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03823024-1A28-7242-B23A-CFB588433641}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17400" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GERD" sheetId="3" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="74">
   <si>
     <t>Option 1</t>
   </si>
@@ -79,24 +79,12 @@
     <t>5-10 (severe)</t>
   </si>
   <si>
-    <t>1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13</t>
-  </si>
-  <si>
-    <t>Is the patient at least 12 years old?</t>
-  </si>
-  <si>
     <t>1, 2, 4, 5, 6, 8, 9, 10, 11, 12, 13</t>
   </si>
   <si>
-    <t>Is the patient under 2 years old?</t>
-  </si>
-  <si>
     <t>NONE</t>
   </si>
   <si>
-    <t>Is the patient at least 6 years old, but under 12 years old?</t>
-  </si>
-  <si>
     <t>4,5,8,9,10,11,12, 13</t>
   </si>
   <si>
@@ -202,15 +190,6 @@
     <t>Are you currently taking any medications that contain rilpivirine, an HIV-1 treatment drug?</t>
   </si>
   <si>
-    <t>Yes </t>
-  </si>
-  <si>
-    <t>Is the patient at least 2 years old, but under 4 years old?</t>
-  </si>
-  <si>
-    <t>Is the patient at least 4 years old, but under 6 years old?</t>
-  </si>
-  <si>
     <t>5, 8</t>
   </si>
   <si>
@@ -248,6 +227,24 @@
   </si>
   <si>
     <t>Question</t>
+  </si>
+  <si>
+    <t>Please enter your age:</t>
+  </si>
+  <si>
+    <t>Age &gt; 12</t>
+  </si>
+  <si>
+    <t>Age &lt;12</t>
+  </si>
+  <si>
+    <t>Age &gt; 2 AND Age &lt; 4</t>
+  </si>
+  <si>
+    <t>Age &gt; 6 AND Age &lt; 12</t>
+  </si>
+  <si>
+    <t>Age condition</t>
   </si>
 </sst>
 </file>
@@ -666,7 +663,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -675,7 +672,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1">
@@ -689,12 +686,12 @@
         <v>14</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1">
       <c r="A3" s="22" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B3" s="22" t="s">
         <v>4</v>
@@ -717,12 +714,12 @@
         <v>17</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1">
       <c r="A5" s="22" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B5" s="22" t="s">
         <v>4</v>
@@ -731,12 +728,12 @@
         <v>5</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1">
       <c r="A6" s="22" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B6" s="22" t="s">
         <v>4</v>
@@ -745,12 +742,12 @@
         <v>5</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1">
       <c r="A7" s="22" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B7" s="22" t="s">
         <v>4</v>
@@ -759,12 +756,12 @@
         <v>5</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1">
       <c r="A8" s="22" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B8" s="22" t="s">
         <v>4</v>
@@ -773,12 +770,12 @@
         <v>5</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1">
       <c r="A9" s="22" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B9" s="22" t="s">
         <v>4</v>
@@ -787,12 +784,12 @@
         <v>5</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1">
       <c r="A10" s="22" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B10" s="22" t="s">
         <v>4</v>
@@ -801,12 +798,12 @@
         <v>5</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1">
       <c r="A11" s="22" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B11" s="22" t="s">
         <v>4</v>
@@ -815,12 +812,12 @@
         <v>5</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1">
       <c r="A12" s="22" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B12" s="22" t="s">
         <v>4</v>
@@ -829,12 +826,12 @@
         <v>5</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1">
       <c r="A13" s="22" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B13" s="22" t="s">
         <v>4</v>
@@ -843,7 +840,7 @@
         <v>5</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1">
@@ -941,11 +938,13 @@
   </sheetPr>
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="29" customWidth="1"/>
+    <col min="1" max="1" width="110.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.5" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
     <col min="4" max="4" width="40.5" customWidth="1"/>
@@ -954,7 +953,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -963,61 +962,55 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="22" t="s">
-        <v>18</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
       <c r="E2" s="10"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="22" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="C3" s="22" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="22" t="s">
-        <v>21</v>
+        <v>73</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="C4" s="22" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E4" s="10"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="22" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="C5" s="22" t="s">
         <v>5</v>
@@ -1029,31 +1022,31 @@
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="A6" s="22" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="C6" s="22" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E6" s="10"/>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="A7" s="22" t="s">
-        <v>23</v>
+        <v>73</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>4</v>
+        <v>72</v>
       </c>
       <c r="C7" s="22" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="22" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7" s="10"/>
     </row>
@@ -1068,13 +1061,13 @@
         <v>5</v>
       </c>
       <c r="D8" s="22" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E8" s="11"/>
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1">
       <c r="A9" s="22" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="B9" s="22" t="s">
         <v>4</v>
@@ -1083,13 +1076,13 @@
         <v>5</v>
       </c>
       <c r="D9" s="22" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E9" s="10"/>
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1">
       <c r="A10" s="22" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B10" s="22" t="s">
         <v>4</v>
@@ -1098,13 +1091,13 @@
         <v>5</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E10" s="10"/>
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1">
       <c r="A11" s="22" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B11" s="22" t="s">
         <v>4</v>
@@ -1113,13 +1106,13 @@
         <v>5</v>
       </c>
       <c r="D11" s="22" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E11" s="10"/>
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1">
       <c r="A12" s="22" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B12" s="22" t="s">
         <v>4</v>
@@ -1128,13 +1121,13 @@
         <v>5</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="E12" s="10"/>
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1">
       <c r="A13" s="22" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B13" s="22" t="s">
         <v>4</v>
@@ -1143,13 +1136,13 @@
         <v>5</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="E13" s="10"/>
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1">
       <c r="A14" s="22" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="B14" s="22" t="s">
         <v>4</v>
@@ -1158,13 +1151,13 @@
         <v>5</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E14" s="10"/>
     </row>
     <row r="15" spans="1:6" ht="15.75" customHeight="1">
       <c r="A15" s="22" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B15" s="22" t="s">
         <v>4</v>
@@ -1173,13 +1166,13 @@
         <v>5</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E15" s="10"/>
     </row>
     <row r="16" spans="1:6" ht="15.75" customHeight="1">
       <c r="A16" s="22" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B16" s="22" t="s">
         <v>4</v>
@@ -1188,13 +1181,13 @@
         <v>5</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E16" s="10"/>
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1">
       <c r="A17" s="22" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B17" s="22" t="s">
         <v>4</v>
@@ -1203,13 +1196,13 @@
         <v>5</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E17" s="10"/>
     </row>
     <row r="18" spans="1:6" ht="15.75" customHeight="1">
       <c r="A18" s="22" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B18" s="22" t="s">
         <v>4</v>
@@ -1218,13 +1211,13 @@
         <v>5</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E18" s="10"/>
     </row>
     <row r="19" spans="1:6" ht="15.75" customHeight="1">
       <c r="A19" s="22" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B19" s="22" t="s">
         <v>4</v>
@@ -1233,13 +1226,13 @@
         <v>5</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E19" s="10"/>
     </row>
     <row r="20" spans="1:6" ht="15.75" customHeight="1">
       <c r="A20" s="22" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="B20" s="22" t="s">
         <v>4</v>
@@ -1248,7 +1241,7 @@
         <v>5</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E20" s="10"/>
     </row>
@@ -1405,7 +1398,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1">
       <c r="A1" s="21" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>0</v>
@@ -1414,7 +1407,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1429,7 +1422,9 @@
   </sheetPr>
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
@@ -1439,7 +1434,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" customHeight="1">
       <c r="A1" s="21" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>0</v>
@@ -1448,7 +1443,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1">
@@ -1462,7 +1457,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1">
@@ -1476,12 +1471,12 @@
         <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>4</v>
@@ -1490,7 +1485,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1">
@@ -1561,7 +1556,7 @@
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1">
       <c r="A11" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>4</v>
@@ -1570,13 +1565,13 @@
         <v>5</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>4</v>
@@ -1585,12 +1580,12 @@
         <v>5</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>4</v>
@@ -1599,12 +1594,12 @@
         <v>5</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1">
       <c r="A14" s="20" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>4</v>
@@ -1613,12 +1608,12 @@
         <v>5</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1">
       <c r="A15" s="20" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>4</v>
@@ -1627,12 +1622,12 @@
         <v>5</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1">
       <c r="A16" s="2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>4</v>
@@ -1641,12 +1636,12 @@
         <v>5</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1">
       <c r="A17" s="2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>4</v>
@@ -1655,12 +1650,12 @@
         <v>5</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>4</v>
@@ -1669,12 +1664,12 @@
         <v>5</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1">
       <c r="A19" s="20" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>4</v>
@@ -1683,7 +1678,7 @@
         <v>5</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/OTCRecommendations.xlsx
+++ b/OTCRecommendations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amirbhd/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03823024-1A28-7242-B23A-CFB588433641}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{448ECC9B-7A80-AC4C-BA24-AAD4736EBA51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17400" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17680" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GERD" sheetId="3" r:id="rId1"/>
@@ -235,16 +235,16 @@
     <t>Age &gt; 12</t>
   </si>
   <si>
-    <t>Age &lt;12</t>
-  </si>
-  <si>
-    <t>Age &gt; 2 AND Age &lt; 4</t>
-  </si>
-  <si>
-    <t>Age &gt; 6 AND Age &lt; 12</t>
-  </si>
-  <si>
     <t>Age condition</t>
+  </si>
+  <si>
+    <t>Age &lt; 2</t>
+  </si>
+  <si>
+    <t>Age &gt; 2 and Age &lt; 4</t>
+  </si>
+  <si>
+    <t>Age &gt; 6 and Age &lt; 12</t>
   </si>
 </sst>
 </file>
@@ -939,7 +939,7 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -976,7 +976,7 @@
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="22" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B3" s="22" t="s">
         <v>69</v>
@@ -992,10 +992,10 @@
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="22" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C4" s="22" t="s">
         <v>5</v>
@@ -1007,10 +1007,10 @@
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="22" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C5" s="22" t="s">
         <v>5</v>
@@ -1022,10 +1022,10 @@
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="A6" s="22" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C6" s="22" t="s">
         <v>5</v>
@@ -1037,10 +1037,10 @@
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="A7" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="22" t="s">
         <v>73</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>72</v>
       </c>
       <c r="C7" s="22" t="s">
         <v>5</v>

--- a/OTCRecommendations.xlsx
+++ b/OTCRecommendations.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amirbhd/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{448ECC9B-7A80-AC4C-BA24-AAD4736EBA51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD33C9C7-8AE2-F74B-956F-009716722104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17680" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GERD" sheetId="3" r:id="rId1"/>
     <sheet name="Allergies" sheetId="4" r:id="rId2"/>
-    <sheet name="Pain Control" sheetId="5" r:id="rId3"/>
-    <sheet name="Constipation" sheetId="6" r:id="rId4"/>
+    <sheet name="Please select an option" sheetId="7" r:id="rId3"/>
+    <sheet name="Pain Control" sheetId="5" r:id="rId4"/>
+    <sheet name="Constipation" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -97,9 +98,6 @@
     <t>Do you have diabetes?</t>
   </si>
   <si>
-    <t>Are you 65 years of age or older?</t>
-  </si>
-  <si>
     <t>1, 2, 6, 11, 12</t>
   </si>
   <si>
@@ -245,6 +243,9 @@
   </si>
   <si>
     <t>Age &gt; 6 and Age &lt; 12</t>
+  </si>
+  <si>
+    <t>Age &gt; 65</t>
   </si>
 </sst>
 </file>
@@ -663,7 +664,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -672,7 +673,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1">
@@ -686,12 +687,12 @@
         <v>14</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1">
       <c r="A3" s="22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B3" s="22" t="s">
         <v>4</v>
@@ -714,26 +715,26 @@
         <v>17</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1">
       <c r="A5" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="22" t="s">
         <v>43</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="22" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1">
       <c r="A6" s="22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B6" s="22" t="s">
         <v>4</v>
@@ -747,7 +748,7 @@
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1">
       <c r="A7" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B7" s="22" t="s">
         <v>4</v>
@@ -761,7 +762,7 @@
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1">
       <c r="A8" s="22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B8" s="22" t="s">
         <v>4</v>
@@ -775,7 +776,7 @@
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1">
       <c r="A9" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B9" s="22" t="s">
         <v>4</v>
@@ -789,35 +790,35 @@
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1">
       <c r="A10" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="22" t="s">
         <v>49</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1">
       <c r="A11" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="22" t="s">
         <v>51</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1">
       <c r="A12" s="22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B12" s="22" t="s">
         <v>4</v>
@@ -826,12 +827,12 @@
         <v>5</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1">
       <c r="A13" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B13" s="22" t="s">
         <v>4</v>
@@ -840,7 +841,7 @@
         <v>5</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1">
@@ -938,8 +939,8 @@
   </sheetPr>
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -953,7 +954,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -962,12 +963,12 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B2" s="22"/>
       <c r="C2" s="22"/>
@@ -976,10 +977,10 @@
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C3" s="22" t="s">
         <v>5</v>
@@ -992,10 +993,10 @@
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="22" t="s">
         <v>70</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>71</v>
       </c>
       <c r="C4" s="22" t="s">
         <v>5</v>
@@ -1007,10 +1008,10 @@
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C5" s="22" t="s">
         <v>5</v>
@@ -1022,25 +1023,25 @@
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="A6" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C6" s="22" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E6" s="10"/>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="A7" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C7" s="22" t="s">
         <v>5</v>
@@ -1067,7 +1068,7 @@
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1">
       <c r="A9" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B9" s="22" t="s">
         <v>4</v>
@@ -1091,7 +1092,7 @@
         <v>5</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E10" s="10"/>
     </row>
@@ -1112,37 +1113,37 @@
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1">
       <c r="A12" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="22" t="s">
         <v>57</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>58</v>
       </c>
       <c r="E12" s="10"/>
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1">
       <c r="A13" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="22" t="s">
         <v>59</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>60</v>
       </c>
       <c r="E13" s="10"/>
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1">
       <c r="A14" s="22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B14" s="22" t="s">
         <v>4</v>
@@ -1157,7 +1158,7 @@
     </row>
     <row r="15" spans="1:6" ht="15.75" customHeight="1">
       <c r="A15" s="22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B15" s="22" t="s">
         <v>4</v>
@@ -1172,7 +1173,7 @@
     </row>
     <row r="16" spans="1:6" ht="15.75" customHeight="1">
       <c r="A16" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B16" s="22" t="s">
         <v>4</v>
@@ -1187,7 +1188,7 @@
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1">
       <c r="A17" s="22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B17" s="22" t="s">
         <v>4</v>
@@ -1202,22 +1203,22 @@
     </row>
     <row r="18" spans="1:6" ht="15.75" customHeight="1">
       <c r="A18" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="22" t="s">
         <v>24</v>
-      </c>
-      <c r="B18" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>25</v>
       </c>
       <c r="E18" s="10"/>
     </row>
     <row r="19" spans="1:6" ht="15.75" customHeight="1">
       <c r="A19" s="22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B19" s="22" t="s">
         <v>4</v>
@@ -1226,13 +1227,13 @@
         <v>5</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E19" s="10"/>
     </row>
     <row r="20" spans="1:6" ht="15.75" customHeight="1">
       <c r="A20" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B20" s="22" t="s">
         <v>4</v>
@@ -1241,7 +1242,7 @@
         <v>5</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E20" s="10"/>
     </row>
@@ -1384,6 +1385,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAF7E18B-5690-ED45-9A2A-3CDD3D27EE6B}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -1398,7 +1413,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1">
       <c r="A1" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>0</v>
@@ -1407,7 +1422,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1415,7 +1430,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -1434,7 +1449,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" customHeight="1">
       <c r="A1" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B1" s="21" t="s">
         <v>0</v>
@@ -1443,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1">
@@ -1457,7 +1472,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1">
@@ -1471,12 +1486,12 @@
         <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>4</v>
@@ -1485,7 +1500,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1">
@@ -1556,22 +1571,22 @@
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1">
       <c r="A11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>30</v>
       </c>
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1">
       <c r="A12" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>4</v>
@@ -1580,12 +1595,12 @@
         <v>5</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1">
       <c r="A13" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>4</v>
@@ -1594,12 +1609,12 @@
         <v>5</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1">
       <c r="A14" s="20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>4</v>
@@ -1608,12 +1623,12 @@
         <v>5</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1">
       <c r="A15" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>4</v>
@@ -1622,12 +1637,12 @@
         <v>5</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1">
       <c r="A16" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>4</v>
@@ -1636,12 +1651,12 @@
         <v>5</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1">
       <c r="A17" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>4</v>
@@ -1650,12 +1665,12 @@
         <v>5</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1">
       <c r="A18" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>4</v>
@@ -1664,12 +1679,12 @@
         <v>5</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1">
       <c r="A19" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>4</v>
@@ -1678,7 +1693,7 @@
         <v>5</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/OTCRecommendations.xlsx
+++ b/OTCRecommendations.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amirbhd/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD33C9C7-8AE2-F74B-956F-009716722104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59B071F2-6ABD-F941-A907-EA16562F86B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GERD" sheetId="3" r:id="rId1"/>
     <sheet name="Allergies" sheetId="4" r:id="rId2"/>
-    <sheet name="Please select an option" sheetId="7" r:id="rId3"/>
+    <sheet name=" " sheetId="7" r:id="rId3"/>
     <sheet name="Pain Control" sheetId="5" r:id="rId4"/>
     <sheet name="Constipation" sheetId="6" r:id="rId5"/>
   </sheets>
@@ -1389,7 +1389,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>

--- a/OTCRecommendations.xlsx
+++ b/OTCRecommendations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amirbhd/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59B071F2-6ABD-F941-A907-EA16562F86B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32A30760-355A-0D43-A88B-A1100BE8C98A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17580" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GERD" sheetId="3" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="113">
   <si>
     <t>Option 1</t>
   </si>
@@ -32,9 +32,6 @@
     <t>Option 2</t>
   </si>
   <si>
-    <t>What sex were you assigned at birth?</t>
-  </si>
-  <si>
     <t>Are you pregnant?</t>
   </si>
   <si>
@@ -44,24 +41,6 @@
     <t>No</t>
   </si>
   <si>
-    <t>Question 4</t>
-  </si>
-  <si>
-    <t>Question 5</t>
-  </si>
-  <si>
-    <t>Question 6</t>
-  </si>
-  <si>
-    <t>Question 7</t>
-  </si>
-  <si>
-    <t>Question 8</t>
-  </si>
-  <si>
-    <t>Question 9</t>
-  </si>
-  <si>
     <t>How frequently do you experience GERD symptoms?</t>
   </si>
   <si>
@@ -101,21 +80,12 @@
     <t>1, 2, 6, 11, 12</t>
   </si>
   <si>
-    <t>Psyllium, Methylcellulose, Polycarbophil, Bisacodyl, Senna, Polyethylene glycol, Docusate, Magnesium citrate, Mineral oil, Glycerin suppositories, Saline enemas</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>Have you had fewer than 3 bowel movements per week?</t>
   </si>
   <si>
     <t>Are you currently taking opioid medications?</t>
   </si>
   <si>
-    <t>Docusate with Bisacodyl or Senna</t>
-  </si>
-  <si>
     <t>Are you/the patient paraplegic or a pediatric patient?</t>
   </si>
   <si>
@@ -246,6 +216,153 @@
   </si>
   <si>
     <t>Age &gt; 65</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>1,4,5,6,7,8,9,10,11,12</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,8,9,10,11,12</t>
+  </si>
+  <si>
+    <t>1,2,3,5,6,9,10,11,12</t>
+  </si>
+  <si>
+    <t>9,10</t>
+  </si>
+  <si>
+    <t>Is the patient experiencing a headache?</t>
+  </si>
+  <si>
+    <t>1,2,3,4,8</t>
+  </si>
+  <si>
+    <t>Is the patient experiencing joint pain/arthritis?</t>
+  </si>
+  <si>
+    <t>2,3,4,5,6,8,10</t>
+  </si>
+  <si>
+    <t>Is the patient experiencing a toothache?</t>
+  </si>
+  <si>
+    <t>1,2,3,4,8,9</t>
+  </si>
+  <si>
+    <t>Is the patient experiencing low grade fever</t>
+  </si>
+  <si>
+    <t>in addition to the pain?</t>
+  </si>
+  <si>
+    <t>Is the patient experiencin stomach pain due to</t>
+  </si>
+  <si>
+    <t>heartburn or sour stomach?</t>
+  </si>
+  <si>
+    <t>11,12</t>
+  </si>
+  <si>
+    <t>Is the patient experiencin stomach pain due to </t>
+  </si>
+  <si>
+    <t>mild diarrhea?</t>
+  </si>
+  <si>
+    <t>Is the patient experiencing mild back pain?</t>
+  </si>
+  <si>
+    <t>1,2,3,5,6,7,10</t>
+  </si>
+  <si>
+    <t>Is the patient experiencing muscular pain?</t>
+  </si>
+  <si>
+    <t>1,2,3,5,6,8,10</t>
+  </si>
+  <si>
+    <t>Is the patient experiencing nervepathic pain </t>
+  </si>
+  <si>
+    <t>(coming form nerves), visceral pain </t>
+  </si>
+  <si>
+    <t>(coming from internal organs), or excruciating pain?</t>
+  </si>
+  <si>
+    <t>Is the patient pregnant?</t>
+  </si>
+  <si>
+    <t>Is the patient breastfeeding?</t>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7,10,11</t>
+  </si>
+  <si>
+    <t>Does the patient have high blood pressure?</t>
+  </si>
+  <si>
+    <t>1,4,5,6,7,9,10,11,12</t>
+  </si>
+  <si>
+    <t>Does the patient have kidney disease?</t>
+  </si>
+  <si>
+    <t>1,5,6,7,9,10</t>
+  </si>
+  <si>
+    <t>Does the patient have liver disease?</t>
+  </si>
+  <si>
+    <t>2,3,4,5,6,7,9,10,11,12</t>
+  </si>
+  <si>
+    <t>Does the patient have rare conditions that might</t>
+  </si>
+  <si>
+    <t>interfere with over the counter medications?</t>
+  </si>
+  <si>
+    <t>Age &gt; 18 and Age &lt; 65</t>
+  </si>
+  <si>
+    <t>Age &gt; 12 and Age &lt; 18</t>
+  </si>
+  <si>
+    <t>Age &gt; 2 and Age &lt; 12</t>
+  </si>
+  <si>
+    <t>1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11</t>
+  </si>
+  <si>
+    <t>1, 2, 3, 4, 5, 6, 7, 10</t>
+  </si>
+  <si>
+    <t>Are you 60 years or older?</t>
+  </si>
+  <si>
+    <t>1, 2, 3, 4, 5, 7, 9, 10</t>
+  </si>
+  <si>
+    <t>Are you experiencing difficulty swallowing?</t>
+  </si>
+  <si>
+    <t>4, 5, 6, 7, 10, 11</t>
+  </si>
+  <si>
+    <t>4, 5, 6, 7, 8, 9, 10, 11</t>
+  </si>
+  <si>
+    <t>Do you have a history of bowel obstruction?</t>
+  </si>
+  <si>
+    <t>2,5,8</t>
   </si>
 </sst>
 </file>
@@ -425,10 +542,8 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -664,7 +779,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -673,175 +788,175 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A2" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A3" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A4" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A5" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A6" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A7" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A8" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A9" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A10" s="21" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A2" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="22" t="s">
+      <c r="B10" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="21" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A3" s="22" t="s">
+    <row r="11" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A11" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A4" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="22" t="s">
+      <c r="B11" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="21" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A5" s="22" t="s">
+    <row r="12" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A12" s="21" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="22" t="s">
+      <c r="B12" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A13" s="21" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A6" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A7" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A8" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A9" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A10" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A11" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A12" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A13" s="22" t="s">
-        <v>53</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>41</v>
+      <c r="B13" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1">
@@ -940,7 +1055,7 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -954,7 +1069,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -963,286 +1078,286 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A2" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
+      <c r="A2" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
       <c r="E2" s="10"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A3" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>18</v>
+      <c r="A3" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>11</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A4" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="B4" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>19</v>
+      <c r="A4" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>12</v>
       </c>
       <c r="E4" s="10"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A5" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="22">
+      <c r="A5" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="21">
         <v>8</v>
       </c>
       <c r="E5" s="10"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A6" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="22" t="s">
+      <c r="A6" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="10"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A7" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="10"/>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A8" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="11"/>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A9" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="10"/>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A10" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="10"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A11" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="10"/>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A12" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="10"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A13" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="10"/>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A14" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="10"/>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A15" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="10"/>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A16" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="10"/>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A17" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="10"/>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A18" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" s="10"/>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A19" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="E6" s="10"/>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A7" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="10"/>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A8" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="11"/>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A9" s="22" t="s">
+      <c r="B19" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" s="10"/>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A20" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="B9" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="10"/>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A10" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="10"/>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A11" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" s="10"/>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A12" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="B12" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12" s="10"/>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A13" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="E13" s="10"/>
-    </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A14" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="B14" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" s="10"/>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A15" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="B15" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="E15" s="10"/>
-    </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A16" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="B16" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="E16" s="10"/>
-    </row>
-    <row r="17" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A17" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="B17" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="E17" s="10"/>
-    </row>
-    <row r="18" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A18" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="B18" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E18" s="10"/>
-    </row>
-    <row r="19" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A19" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="B19" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="10"/>
-    </row>
-    <row r="20" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A20" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="B20" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="22" t="s">
-        <v>24</v>
+      <c r="B20" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>17</v>
       </c>
       <c r="E20" s="10"/>
     </row>
@@ -1388,7 +1503,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAF7E18B-5690-ED45-9A2A-3CDD3D27EE6B}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
@@ -1403,29 +1518,385 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="41.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A2" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A3" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="21" t="s">
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A4" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A5" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A6" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A7" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A8" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A9" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A10" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A11" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A12" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A13" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A14" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+    </row>
+    <row r="15" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A15" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="22">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A16" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A17" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A18" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A19" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A20" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+    </row>
+    <row r="21" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A21" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A22" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" s="21">
         <v>1</v>
       </c>
-      <c r="D1" s="21" t="s">
-        <v>38</v>
-      </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A23" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A24" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A25" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A26" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A27" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="B27" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A28" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
     </row>
   </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="C19:C21"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1435,10 +1906,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1448,252 +1919,242 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A1" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="B1" s="21" t="s">
+      <c r="A1" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A2" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A3" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A4" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A5" s="21" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="B5" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A6" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A7" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A8" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A9" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="E9" s="2"/>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A10" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A11" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A12" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A13" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A14" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A15" s="21" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="B15" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" customHeight="1">
+      <c r="A16" s="21" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A4" s="2" t="s">
+      <c r="B16" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A17" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A11" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A12" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A13" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A14" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A15" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A16" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A17" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A18" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A19" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>26</v>
+      <c r="B17" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/OTCRecommendations.xlsx
+++ b/OTCRecommendations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amirbhd/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32A30760-355A-0D43-A88B-A1100BE8C98A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C7FA8E8-E1FD-8149-AB2A-BE19867E9ACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17580" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17580" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GERD" sheetId="3" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="109">
   <si>
     <t>Option 1</t>
   </si>
@@ -254,12 +254,6 @@
     <t>1,2,3,4,8,9</t>
   </si>
   <si>
-    <t>Is the patient experiencing low grade fever</t>
-  </si>
-  <si>
-    <t>in addition to the pain?</t>
-  </si>
-  <si>
     <t>Is the patient experiencin stomach pain due to</t>
   </si>
   <si>
@@ -287,15 +281,6 @@
     <t>1,2,3,5,6,8,10</t>
   </si>
   <si>
-    <t>Is the patient experiencing nervepathic pain </t>
-  </si>
-  <si>
-    <t>(coming form nerves), visceral pain </t>
-  </si>
-  <si>
-    <t>(coming from internal organs), or excruciating pain?</t>
-  </si>
-  <si>
     <t>Is the patient pregnant?</t>
   </si>
   <si>
@@ -323,12 +308,6 @@
     <t>2,3,4,5,6,7,9,10,11,12</t>
   </si>
   <si>
-    <t>Does the patient have rare conditions that might</t>
-  </si>
-  <si>
-    <t>interfere with over the counter medications?</t>
-  </si>
-  <si>
     <t>Age &gt; 18 and Age &lt; 65</t>
   </si>
   <si>
@@ -363,6 +342,15 @@
   </si>
   <si>
     <t>2,5,8</t>
+  </si>
+  <si>
+    <t>Is the patient experiencing low grade fever in addition to the pain?</t>
+  </si>
+  <si>
+    <t>Is the patient experiencing nervepathic pain (coming form nerves), visceral pain (coming from internal organs), or excruciating pain?</t>
+  </si>
+  <si>
+    <t>Does the patient have rare conditions that might interfere with over the counter medications?</t>
   </si>
 </sst>
 </file>
@@ -491,7 +479,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -545,6 +533,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1520,8 +1511,8 @@
   </sheetPr>
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1570,7 +1561,7 @@
         <v>59</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C4" s="21" t="s">
         <v>65</v>
@@ -1584,7 +1575,7 @@
         <v>59</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="C5" s="21" t="s">
         <v>65</v>
@@ -1598,7 +1589,7 @@
         <v>59</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="C6" s="21" t="s">
         <v>65</v>
@@ -1664,8 +1655,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A11" s="21" t="s">
-        <v>76</v>
+      <c r="A11" s="23" t="s">
+        <v>106</v>
       </c>
       <c r="B11" s="22" t="s">
         <v>64</v>
@@ -1678,16 +1669,14 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A12" s="21" t="s">
-        <v>77</v>
-      </c>
+      <c r="A12" s="23"/>
       <c r="B12" s="22"/>
       <c r="C12" s="22"/>
       <c r="D12" s="22"/>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1">
       <c r="A13" s="21" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B13" s="22" t="s">
         <v>64</v>
@@ -1696,12 +1685,12 @@
         <v>65</v>
       </c>
       <c r="D13" s="22" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1">
       <c r="A14" s="21" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B14" s="22"/>
       <c r="C14" s="22"/>
@@ -1709,7 +1698,7 @@
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1">
       <c r="A15" s="21" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B15" s="22" t="s">
         <v>64</v>
@@ -1723,7 +1712,7 @@
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1">
       <c r="A16" s="21" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B16" s="22"/>
       <c r="C16" s="22"/>
@@ -1731,7 +1720,7 @@
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1">
       <c r="A17" s="21" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B17" s="21" t="s">
         <v>64</v>
@@ -1740,12 +1729,12 @@
         <v>65</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1">
       <c r="A18" s="21" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B18" s="21" t="s">
         <v>64</v>
@@ -1754,12 +1743,12 @@
         <v>65</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A19" s="21" t="s">
-        <v>87</v>
+      <c r="A19" s="23" t="s">
+        <v>107</v>
       </c>
       <c r="B19" s="22" t="s">
         <v>64</v>
@@ -1772,24 +1761,20 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A20" s="21" t="s">
-        <v>88</v>
-      </c>
+      <c r="A20" s="23"/>
       <c r="B20" s="22"/>
       <c r="C20" s="22"/>
       <c r="D20" s="22"/>
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A21" s="21" t="s">
-        <v>89</v>
-      </c>
+      <c r="A21" s="23"/>
       <c r="B21" s="22"/>
       <c r="C21" s="22"/>
       <c r="D21" s="22"/>
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1">
       <c r="A22" s="21" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B22" s="21" t="s">
         <v>64</v>
@@ -1803,7 +1788,7 @@
     </row>
     <row r="23" spans="1:4" ht="15.75" customHeight="1">
       <c r="A23" s="21" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B23" s="21" t="s">
         <v>64</v>
@@ -1812,12 +1797,12 @@
         <v>65</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.75" customHeight="1">
       <c r="A24" s="21" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B24" s="21" t="s">
         <v>64</v>
@@ -1826,12 +1811,12 @@
         <v>65</v>
       </c>
       <c r="D24" s="21" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.75" customHeight="1">
       <c r="A25" s="21" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B25" s="21" t="s">
         <v>64</v>
@@ -1840,12 +1825,12 @@
         <v>65</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15.75" customHeight="1">
       <c r="A26" s="21" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B26" s="21" t="s">
         <v>64</v>
@@ -1854,12 +1839,12 @@
         <v>65</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A27" s="21" t="s">
-        <v>99</v>
+      <c r="A27" s="23" t="s">
+        <v>108</v>
       </c>
       <c r="B27" s="22" t="s">
         <v>64</v>
@@ -1872,18 +1857,19 @@
       </c>
     </row>
     <row r="28" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A28" s="21" t="s">
-        <v>100</v>
-      </c>
+      <c r="A28" s="23"/>
       <c r="B28" s="22"/>
       <c r="C28" s="22"/>
       <c r="D28" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="18">
     <mergeCell ref="B27:B28"/>
     <mergeCell ref="C27:C28"/>
     <mergeCell ref="D27:D28"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A27:A28"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="C15:C16"/>
     <mergeCell ref="D15:D16"/>
@@ -1908,7 +1894,7 @@
   </sheetPr>
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
@@ -1943,12 +1929,12 @@
         <v>4</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1">
       <c r="A3" s="21" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B3" s="21" t="s">
         <v>3</v>
@@ -1957,7 +1943,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1">
@@ -1971,7 +1957,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1">
@@ -1985,12 +1971,12 @@
         <v>4</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1">
       <c r="A6" s="21" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B6" s="21" t="s">
         <v>3</v>
@@ -1999,7 +1985,7 @@
         <v>4</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1">
@@ -2013,12 +1999,12 @@
         <v>4</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1">
       <c r="A8" s="21" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="B8" s="21" t="s">
         <v>3</v>
@@ -2041,7 +2027,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="E9" s="2"/>
     </row>

--- a/OTCRecommendations.xlsx
+++ b/OTCRecommendations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amirbhd/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C7FA8E8-E1FD-8149-AB2A-BE19867E9ACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{252AD52E-228E-8249-B04D-B8169B1A1032}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17580" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="107">
   <si>
     <t>Option 1</t>
   </si>
@@ -254,21 +254,9 @@
     <t>1,2,3,4,8,9</t>
   </si>
   <si>
-    <t>Is the patient experiencin stomach pain due to</t>
-  </si>
-  <si>
-    <t>heartburn or sour stomach?</t>
-  </si>
-  <si>
     <t>11,12</t>
   </si>
   <si>
-    <t>Is the patient experiencin stomach pain due to </t>
-  </si>
-  <si>
-    <t>mild diarrhea?</t>
-  </si>
-  <si>
     <t>Is the patient experiencing mild back pain?</t>
   </si>
   <si>
@@ -351,6 +339,12 @@
   </si>
   <si>
     <t>Does the patient have rare conditions that might interfere with over the counter medications?</t>
+  </si>
+  <si>
+    <t>Is the patient experiencin stomach pain due to heartburn or sour stomach?</t>
+  </si>
+  <si>
+    <t>Is the patient experiencin stomach pain due to mild diarrhea?</t>
   </si>
 </sst>
 </file>
@@ -479,7 +473,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -532,10 +526,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1509,10 +1499,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1561,7 +1551,7 @@
         <v>59</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C4" s="21" t="s">
         <v>65</v>
@@ -1575,7 +1565,7 @@
         <v>59</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C5" s="21" t="s">
         <v>65</v>
@@ -1589,7 +1579,7 @@
         <v>59</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="C6" s="21" t="s">
         <v>65</v>
@@ -1655,68 +1645,88 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A11" s="23" t="s">
-        <v>106</v>
-      </c>
-      <c r="B11" s="22" t="s">
+      <c r="A11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B11" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A12" s="23"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
+      <c r="A12" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1">
       <c r="A13" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="B13" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="B13" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="D13" s="22" t="s">
-        <v>78</v>
+      <c r="D13">
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1">
       <c r="A14" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
+      <c r="B14" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1">
       <c r="A15" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="D15" s="22">
-        <v>12</v>
+      <c r="D15" s="21" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A16" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
+      <c r="A16" t="s">
+        <v>103</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1">
       <c r="A17" s="21" t="s">
@@ -1728,13 +1738,13 @@
       <c r="C17" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="D17" s="21" t="s">
-        <v>82</v>
+      <c r="D17" s="21">
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1">
       <c r="A18" s="21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B18" s="21" t="s">
         <v>64</v>
@@ -1743,38 +1753,54 @@
         <v>65</v>
       </c>
       <c r="D18" s="21" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A19" s="21" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A19" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="21" t="s">
         <v>64</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="D19" s="22" t="s">
-        <v>12</v>
+      <c r="D19" s="21" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A20" s="23"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
+      <c r="A20" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A21" s="23"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
+      <c r="A21" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A22" s="21" t="s">
-        <v>85</v>
+      <c r="A22" t="s">
+        <v>104</v>
       </c>
       <c r="B22" s="21" t="s">
         <v>64</v>
@@ -1782,107 +1808,11 @@
       <c r="C22" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="D22" s="21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A23" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="B23" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="C23" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="D23" s="21" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A24" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="B24" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="C24" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="D24" s="21" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A25" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="B25" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="C25" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="D25" s="21" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A26" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="B26" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="C26" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="D26" s="21" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A27" s="23" t="s">
-        <v>108</v>
-      </c>
-      <c r="B27" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="C27" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="D27" s="22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A28" s="23"/>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
+      <c r="D22" s="21" t="s">
+        <v>12</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="C19:C21"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1929,12 +1859,12 @@
         <v>4</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1">
       <c r="A3" s="21" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B3" s="21" t="s">
         <v>3</v>
@@ -1943,7 +1873,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1">
@@ -1957,7 +1887,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1">
@@ -1971,12 +1901,12 @@
         <v>4</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1">
       <c r="A6" s="21" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B6" s="21" t="s">
         <v>3</v>
@@ -1985,7 +1915,7 @@
         <v>4</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1">
@@ -1999,12 +1929,12 @@
         <v>4</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1">
       <c r="A8" s="21" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B8" s="21" t="s">
         <v>3</v>
@@ -2027,7 +1957,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E9" s="2"/>
     </row>

--- a/OTCRecommendations.xlsx
+++ b/OTCRecommendations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amirbhd/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{252AD52E-228E-8249-B04D-B8169B1A1032}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EF649FB-A0D6-C44C-A0D3-B4B2EB72E004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17580" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GERD" sheetId="3" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="108">
   <si>
     <t>Option 1</t>
   </si>
@@ -345,6 +345,9 @@
   </si>
   <si>
     <t>Is the patient experiencin stomach pain due to mild diarrhea?</t>
+  </si>
+  <si>
+    <t>Age =&lt; 2</t>
   </si>
 </sst>
 </file>
@@ -1035,8 +1038,8 @@
   </sheetPr>
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1092,7 +1095,7 @@
         <v>59</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="C4" s="21" t="s">
         <v>4</v>
@@ -1501,7 +1504,7 @@
   </sheetPr>
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>

--- a/OTCRecommendations.xlsx
+++ b/OTCRecommendations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amirbhd/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EF649FB-A0D6-C44C-A0D3-B4B2EB72E004}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6164FA08-4DE6-E145-84E7-C1A77DEA41CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -347,7 +347,7 @@
     <t>Is the patient experiencin stomach pain due to mild diarrhea?</t>
   </si>
   <si>
-    <t>Age =&lt; 2</t>
+    <t>Age &lt; 2.1</t>
   </si>
 </sst>
 </file>
@@ -1039,7 +1039,7 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>

--- a/OTCRecommendations.xlsx
+++ b/OTCRecommendations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amirbhd/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6164FA08-4DE6-E145-84E7-C1A77DEA41CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19ED5E81-3DAA-FC42-BBF6-7941FD4EC7C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10120" yWindow="760" windowWidth="19200" windowHeight="17540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GERD" sheetId="3" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="110">
   <si>
     <t>Option 1</t>
   </si>
@@ -116,9 +116,6 @@
     <t>1, 2</t>
   </si>
   <si>
-    <t>Are your symptoms of GERD the worst during the night?</t>
-  </si>
-  <si>
     <t>3, 4, 5</t>
   </si>
   <si>
@@ -182,12 +179,6 @@
     <t>Do you have facial pain, fever, or earache?</t>
   </si>
   <si>
-    <t>Do you have reoccurring nose bleeds?</t>
-  </si>
-  <si>
-    <t>Have you had any allergies to over the counter medications that treat allergies in the past?</t>
-  </si>
-  <si>
     <t>Do you have urinary retention?</t>
   </si>
   <si>
@@ -236,63 +227,33 @@
     <t>9,10</t>
   </si>
   <si>
-    <t>Is the patient experiencing a headache?</t>
-  </si>
-  <si>
     <t>1,2,3,4,8</t>
   </si>
   <si>
-    <t>Is the patient experiencing joint pain/arthritis?</t>
-  </si>
-  <si>
     <t>2,3,4,5,6,8,10</t>
   </si>
   <si>
-    <t>Is the patient experiencing a toothache?</t>
-  </si>
-  <si>
     <t>1,2,3,4,8,9</t>
   </si>
   <si>
     <t>11,12</t>
   </si>
   <si>
-    <t>Is the patient experiencing mild back pain?</t>
-  </si>
-  <si>
     <t>1,2,3,5,6,7,10</t>
   </si>
   <si>
-    <t>Is the patient experiencing muscular pain?</t>
-  </si>
-  <si>
     <t>1,2,3,5,6,8,10</t>
   </si>
   <si>
-    <t>Is the patient pregnant?</t>
-  </si>
-  <si>
-    <t>Is the patient breastfeeding?</t>
-  </si>
-  <si>
     <t>1,2,3,4,5,6,7,10,11</t>
   </si>
   <si>
-    <t>Does the patient have high blood pressure?</t>
-  </si>
-  <si>
     <t>1,4,5,6,7,9,10,11,12</t>
   </si>
   <si>
-    <t>Does the patient have kidney disease?</t>
-  </si>
-  <si>
     <t>1,5,6,7,9,10</t>
   </si>
   <si>
-    <t>Does the patient have liver disease?</t>
-  </si>
-  <si>
     <t>2,3,4,5,6,7,9,10,11,12</t>
   </si>
   <si>
@@ -311,9 +272,6 @@
     <t>1, 2, 3, 4, 5, 6, 7, 10</t>
   </si>
   <si>
-    <t>Are you 60 years or older?</t>
-  </si>
-  <si>
     <t>1, 2, 3, 4, 5, 7, 9, 10</t>
   </si>
   <si>
@@ -332,22 +290,70 @@
     <t>2,5,8</t>
   </si>
   <si>
-    <t>Is the patient experiencing low grade fever in addition to the pain?</t>
-  </si>
-  <si>
-    <t>Is the patient experiencing nervepathic pain (coming form nerves), visceral pain (coming from internal organs), or excruciating pain?</t>
-  </si>
-  <si>
     <t>Does the patient have rare conditions that might interfere with over the counter medications?</t>
   </si>
   <si>
-    <t>Is the patient experiencin stomach pain due to heartburn or sour stomach?</t>
-  </si>
-  <si>
-    <t>Is the patient experiencin stomach pain due to mild diarrhea?</t>
-  </si>
-  <si>
     <t>Age &lt; 2.1</t>
+  </si>
+  <si>
+    <t>Do you have recurrent nose bleeds?</t>
+  </si>
+  <si>
+    <t>Have you had any allergies to over the counter medications that treat allergies?</t>
+  </si>
+  <si>
+    <t>Are you experiencing a headache?</t>
+  </si>
+  <si>
+    <t>Are you experiencing joint pain/arthritis?</t>
+  </si>
+  <si>
+    <t>Are you experiencing a toothache?</t>
+  </si>
+  <si>
+    <t>Are you experiencing low grade fever in addition to the pain?</t>
+  </si>
+  <si>
+    <t>Are you experiencing stomach pain due to heartburn or sour stomach?</t>
+  </si>
+  <si>
+    <t>Are you experiencing stomach pain due to mild diarrhea?</t>
+  </si>
+  <si>
+    <t>Are you experiencing mild back pain? </t>
+  </si>
+  <si>
+    <t>Are you experiencing muscular pain? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are you experiencing neuropathic pain (coming from nerves), visceral pain (coming from internal organs), or excruciating pain? </t>
+  </si>
+  <si>
+    <t>Are you pregnant? </t>
+  </si>
+  <si>
+    <t>Are you breastfeeding? </t>
+  </si>
+  <si>
+    <t>Do you have high blood pressure? </t>
+  </si>
+  <si>
+    <t>Does the patient have kidney disease? </t>
+  </si>
+  <si>
+    <t>Does the patient have liver disease? </t>
+  </si>
+  <si>
+    <t>Are you 60 years of age or older?</t>
+  </si>
+  <si>
+    <t>Are you experiencing radiating pain down the arm?</t>
+  </si>
+  <si>
+    <t>Do you have a history of alcohol use disorder?</t>
+  </si>
+  <si>
+    <t>Have you previously tried using any of these therapies continuously for over a month?</t>
   </si>
 </sst>
 </file>
@@ -747,10 +753,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -763,7 +769,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -791,35 +797,35 @@
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1">
       <c r="A3" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="21" t="s">
         <v>30</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="21">
-        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1">
       <c r="A4" s="21" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1">
       <c r="A5" s="21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B5" s="21" t="s">
         <v>3</v>
@@ -828,7 +834,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>33</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1">
@@ -884,12 +890,12 @@
         <v>4</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1">
       <c r="A10" s="21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B10" s="21" t="s">
         <v>3</v>
@@ -898,12 +904,12 @@
         <v>4</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1">
       <c r="A11" s="21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B11" s="21" t="s">
         <v>3</v>
@@ -912,7 +918,7 @@
         <v>4</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1">
@@ -926,12 +932,12 @@
         <v>4</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1">
       <c r="A13" s="21" t="s">
-        <v>43</v>
+        <v>107</v>
       </c>
       <c r="B13" s="21" t="s">
         <v>3</v>
@@ -940,14 +946,36 @@
         <v>4</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>31</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A14" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="21" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
+      <c r="A15" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1">
       <c r="A16" s="3"/>
@@ -974,44 +1002,44 @@
       <c r="D19" s="3"/>
     </row>
     <row r="20" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="5"/>
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="5"/>
+      <c r="A21" s="3"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1">
       <c r="A22" s="3"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
+      <c r="B22" s="3"/>
       <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="D23" s="3"/>
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
     </row>
     <row r="24" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="3"/>
     </row>
     <row r="25" spans="1:4" ht="15.75" customHeight="1">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
-      <c r="C25" s="7"/>
+      <c r="C25" s="8"/>
       <c r="D25" s="3"/>
     </row>
     <row r="26" spans="1:4" ht="15.75" customHeight="1">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
-      <c r="C26" s="8"/>
+      <c r="C26" s="3"/>
       <c r="D26" s="3"/>
     </row>
     <row r="27" spans="1:4" ht="15.75" customHeight="1">
@@ -1019,12 +1047,6 @@
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
-    </row>
-    <row r="28" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1038,8 +1060,8 @@
   </sheetPr>
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1053,7 +1075,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1067,7 +1089,7 @@
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="21" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
@@ -1076,10 +1098,10 @@
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="21" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C3" s="21" t="s">
         <v>4</v>
@@ -1092,10 +1114,10 @@
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="21" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="C4" s="21" t="s">
         <v>4</v>
@@ -1107,10 +1129,10 @@
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="21" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C5" s="21" t="s">
         <v>4</v>
@@ -1122,25 +1144,25 @@
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="A6" s="21" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C6" s="21" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E6" s="10"/>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="A7" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="21" t="s">
         <v>59</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>62</v>
       </c>
       <c r="C7" s="21" t="s">
         <v>4</v>
@@ -1167,7 +1189,7 @@
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1">
       <c r="A9" s="21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B9" s="21" t="s">
         <v>3</v>
@@ -1212,37 +1234,37 @@
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1">
       <c r="A12" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="21" t="s">
         <v>46</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>47</v>
       </c>
       <c r="E12" s="10"/>
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1">
       <c r="A13" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="21" t="s">
         <v>48</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>49</v>
       </c>
       <c r="E13" s="10"/>
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1">
       <c r="A14" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B14" s="21" t="s">
         <v>3</v>
@@ -1257,7 +1279,7 @@
     </row>
     <row r="15" spans="1:6" ht="15.75" customHeight="1">
       <c r="A15" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B15" s="21" t="s">
         <v>3</v>
@@ -1272,7 +1294,7 @@
     </row>
     <row r="16" spans="1:6" ht="15.75" customHeight="1">
       <c r="A16" s="21" t="s">
-        <v>52</v>
+        <v>90</v>
       </c>
       <c r="B16" s="21" t="s">
         <v>3</v>
@@ -1287,7 +1309,7 @@
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1">
       <c r="A17" s="21" t="s">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="B17" s="21" t="s">
         <v>3</v>
@@ -1302,10 +1324,10 @@
     </row>
     <row r="18" spans="1:6" ht="15.75" customHeight="1">
       <c r="A18" s="21" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C18" s="21" t="s">
         <v>4</v>
@@ -1317,7 +1339,7 @@
     </row>
     <row r="19" spans="1:6" ht="15.75" customHeight="1">
       <c r="A19" s="21" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B19" s="21" t="s">
         <v>3</v>
@@ -1332,7 +1354,7 @@
     </row>
     <row r="20" spans="1:6" ht="15.75" customHeight="1">
       <c r="A20" s="21" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B20" s="21" t="s">
         <v>3</v>
@@ -1504,8 +1526,8 @@
   </sheetPr>
   <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1515,7 +1537,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1">
       <c r="A1" s="20" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B1" s="20" t="s">
         <v>0</v>
@@ -1529,7 +1551,7 @@
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1">
       <c r="A2" s="21" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B2" s="20"/>
       <c r="C2" s="20"/>
@@ -1537,69 +1559,69 @@
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1">
       <c r="A3" s="21" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B3" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="21" t="s">
         <v>63</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1">
       <c r="A4" s="21" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1">
       <c r="A5" s="21" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="C5" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="21" t="s">
         <v>65</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1">
       <c r="A6" s="21" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1">
       <c r="A7" s="21" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D7" s="21" t="s">
         <v>12</v>
@@ -1607,83 +1629,83 @@
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1">
       <c r="A8" s="21" t="s">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1">
       <c r="A9" s="21" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1">
       <c r="A10" s="21" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A11" t="s">
-        <v>102</v>
+      <c r="A11" s="21" t="s">
+        <v>95</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D11" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1">
       <c r="A12" s="21" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D12" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1">
       <c r="A13" s="21" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D13">
         <v>12</v>
@@ -1691,41 +1713,41 @@
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1">
       <c r="A14" s="21" t="s">
-        <v>77</v>
+        <v>98</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1">
       <c r="A15" s="21" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A16" t="s">
-        <v>103</v>
+      <c r="A16" s="21" t="s">
+        <v>100</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D16" s="21" t="s">
         <v>12</v>
@@ -1733,13 +1755,13 @@
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1">
       <c r="A17" s="21" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D17" s="21">
         <v>1</v>
@@ -1747,69 +1769,69 @@
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1">
       <c r="A18" s="21" t="s">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1">
       <c r="A19" s="21" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" customHeight="1">
       <c r="A20" s="21" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1">
       <c r="A21" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A22" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="B21" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="D21" s="21" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A22" t="s">
-        <v>104</v>
-      </c>
       <c r="B22" s="21" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D22" s="21" t="s">
         <v>12</v>
@@ -1828,7 +1850,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1839,7 +1861,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" customHeight="1">
       <c r="A1" s="20" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B1" s="20" t="s">
         <v>0</v>
@@ -1862,12 +1884,12 @@
         <v>4</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1">
       <c r="A3" s="21" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="B3" s="21" t="s">
         <v>3</v>
@@ -1876,7 +1898,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1">
@@ -1890,12 +1912,12 @@
         <v>4</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1">
       <c r="A5" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B5" s="21" t="s">
         <v>3</v>
@@ -1904,12 +1926,12 @@
         <v>4</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1">
       <c r="A6" s="21" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="B6" s="21" t="s">
         <v>3</v>
@@ -1918,7 +1940,7 @@
         <v>4</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1">
@@ -1932,12 +1954,12 @@
         <v>4</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1">
       <c r="A8" s="21" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="B8" s="21" t="s">
         <v>3</v>
@@ -1960,7 +1982,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="E9" s="2"/>
     </row>

--- a/OTCRecommendations.xlsx
+++ b/OTCRecommendations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amirbhd/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19ED5E81-3DAA-FC42-BBF6-7941FD4EC7C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9D4B893-6306-C742-98F8-381B59A1F3EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10120" yWindow="760" windowWidth="19200" windowHeight="17540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12660" yWindow="1000" windowWidth="19200" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GERD" sheetId="3" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="110">
   <si>
     <t>Option 1</t>
   </si>
@@ -125,15 +125,9 @@
     <t>4, 5</t>
   </si>
   <si>
-    <t>Do you ever experience trouble or pain when swallowing food?</t>
-  </si>
-  <si>
     <t>Are you experiencing vomiting with blood?</t>
   </si>
   <si>
-    <t>Are you experiencing black or bloody stools</t>
-  </si>
-  <si>
     <t>Do you suffer from anemia, or low levels of iron?</t>
   </si>
   <si>
@@ -290,9 +284,6 @@
     <t>2,5,8</t>
   </si>
   <si>
-    <t>Does the patient have rare conditions that might interfere with over the counter medications?</t>
-  </si>
-  <si>
     <t>Age &lt; 2.1</t>
   </si>
   <si>
@@ -354,13 +345,22 @@
   </si>
   <si>
     <t>Have you previously tried using any of these therapies continuously for over a month?</t>
+  </si>
+  <si>
+    <t>Do you have a rare condition(s) that might interfere with over the counter medications?</t>
+  </si>
+  <si>
+    <t>Are you experiencing white or tan colored stools?</t>
+  </si>
+  <si>
+    <t>Have you experienced trouble or pain when swallowing food?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -443,6 +443,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -482,7 +489,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -535,6 +542,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -755,8 +763,8 @@
   </sheetPr>
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -769,7 +777,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -825,7 +833,7 @@
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1">
       <c r="A5" s="21" t="s">
-        <v>33</v>
+        <v>109</v>
       </c>
       <c r="B5" s="21" t="s">
         <v>3</v>
@@ -839,7 +847,7 @@
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1">
       <c r="A6" s="21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B6" s="21" t="s">
         <v>3</v>
@@ -853,7 +861,7 @@
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1">
       <c r="A7" s="21" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="B7" s="21" t="s">
         <v>3</v>
@@ -867,7 +875,7 @@
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1">
       <c r="A8" s="21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B8" s="21" t="s">
         <v>3</v>
@@ -881,7 +889,7 @@
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1">
       <c r="A9" s="21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B9" s="21" t="s">
         <v>3</v>
@@ -890,12 +898,12 @@
         <v>4</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1">
       <c r="A10" s="21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B10" s="21" t="s">
         <v>3</v>
@@ -904,12 +912,12 @@
         <v>4</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1">
       <c r="A11" s="21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B11" s="21" t="s">
         <v>3</v>
@@ -923,7 +931,7 @@
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1">
       <c r="A12" s="21" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B12" s="21" t="s">
         <v>3</v>
@@ -937,7 +945,7 @@
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1">
       <c r="A13" s="21" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B13" s="21" t="s">
         <v>3</v>
@@ -951,7 +959,7 @@
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1">
       <c r="A14" s="21" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B14" s="21" t="s">
         <v>3</v>
@@ -965,7 +973,7 @@
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1">
       <c r="A15" s="21" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B15" s="21" t="s">
         <v>3</v>
@@ -1075,7 +1083,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1089,7 +1097,7 @@
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="21" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
@@ -1098,10 +1106,10 @@
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C3" s="21" t="s">
         <v>4</v>
@@ -1114,10 +1122,10 @@
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C4" s="21" t="s">
         <v>4</v>
@@ -1129,10 +1137,10 @@
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="21" t="s">
         <v>56</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>58</v>
       </c>
       <c r="C5" s="21" t="s">
         <v>4</v>
@@ -1144,25 +1152,25 @@
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="A6" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="B6" s="21" t="s">
-        <v>58</v>
-      </c>
       <c r="C6" s="21" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E6" s="10"/>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="A7" s="21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C7" s="21" t="s">
         <v>4</v>
@@ -1189,7 +1197,7 @@
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1">
       <c r="A9" s="21" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B9" s="21" t="s">
         <v>3</v>
@@ -1234,7 +1242,7 @@
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1">
       <c r="A12" s="21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B12" s="21" t="s">
         <v>3</v>
@@ -1243,13 +1251,13 @@
         <v>4</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E12" s="10"/>
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1">
       <c r="A13" s="21" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B13" s="21" t="s">
         <v>3</v>
@@ -1258,13 +1266,13 @@
         <v>4</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E13" s="10"/>
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1">
       <c r="A14" s="21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B14" s="21" t="s">
         <v>3</v>
@@ -1279,7 +1287,7 @@
     </row>
     <row r="15" spans="1:6" ht="15.75" customHeight="1">
       <c r="A15" s="21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B15" s="21" t="s">
         <v>3</v>
@@ -1294,7 +1302,7 @@
     </row>
     <row r="16" spans="1:6" ht="15.75" customHeight="1">
       <c r="A16" s="21" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B16" s="21" t="s">
         <v>3</v>
@@ -1309,7 +1317,7 @@
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1">
       <c r="A17" s="21" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B17" s="21" t="s">
         <v>3</v>
@@ -1324,10 +1332,10 @@
     </row>
     <row r="18" spans="1:6" ht="15.75" customHeight="1">
       <c r="A18" s="21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C18" s="21" t="s">
         <v>4</v>
@@ -1339,7 +1347,7 @@
     </row>
     <row r="19" spans="1:6" ht="15.75" customHeight="1">
       <c r="A19" s="21" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B19" s="21" t="s">
         <v>3</v>
@@ -1354,7 +1362,7 @@
     </row>
     <row r="20" spans="1:6" ht="15.75" customHeight="1">
       <c r="A20" s="21" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B20" s="21" t="s">
         <v>3</v>
@@ -1524,10 +1532,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1537,7 +1545,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1">
       <c r="A1" s="20" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B1" s="20" t="s">
         <v>0</v>
@@ -1551,7 +1559,7 @@
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1">
       <c r="A2" s="21" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B2" s="20"/>
       <c r="C2" s="20"/>
@@ -1559,69 +1567,69 @@
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1">
       <c r="A3" s="21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B3" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="21" t="s">
-        <v>62</v>
-      </c>
       <c r="D3" s="21" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1">
       <c r="A4" s="21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C4" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="21" t="s">
         <v>62</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1">
       <c r="A5" s="21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1">
       <c r="A6" s="21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1">
       <c r="A7" s="21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D7" s="21" t="s">
         <v>12</v>
@@ -1629,83 +1637,83 @@
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1">
       <c r="A8" s="21" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1">
       <c r="A9" s="21" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1">
       <c r="A10" s="21" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1">
       <c r="A11" s="21" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1">
       <c r="A12" s="21" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1">
       <c r="A13" s="21" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D13">
         <v>12</v>
@@ -1713,41 +1721,41 @@
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1">
       <c r="A14" s="21" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1">
       <c r="A15" s="21" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1">
       <c r="A16" s="21" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D16" s="21" t="s">
         <v>12</v>
@@ -1755,13 +1763,13 @@
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1">
       <c r="A17" s="21" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D17" s="21">
         <v>1</v>
@@ -1769,73 +1777,76 @@
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1">
       <c r="A18" s="21" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1">
       <c r="A19" s="21" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" customHeight="1">
       <c r="A20" s="21" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1">
       <c r="A21" s="21" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1">
       <c r="A22" s="21" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D22" s="21" t="s">
         <v>12</v>
       </c>
+    </row>
+    <row r="23" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A23" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1847,10 +1858,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1861,7 +1872,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" customHeight="1">
       <c r="A1" s="20" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B1" s="20" t="s">
         <v>0</v>
@@ -1884,12 +1895,12 @@
         <v>4</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1">
       <c r="A3" s="21" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B3" s="21" t="s">
         <v>3</v>
@@ -1898,7 +1909,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1">
@@ -1912,12 +1923,12 @@
         <v>4</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1">
       <c r="A5" s="21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B5" s="21" t="s">
         <v>3</v>
@@ -1926,12 +1937,12 @@
         <v>4</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1">
       <c r="A6" s="21" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B6" s="21" t="s">
         <v>3</v>
@@ -1940,7 +1951,7 @@
         <v>4</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1">
@@ -1954,12 +1965,12 @@
         <v>4</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1">
       <c r="A8" s="21" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B8" s="21" t="s">
         <v>3</v>
@@ -1973,7 +1984,7 @@
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1">
       <c r="A9" s="21" t="s">
-        <v>19</v>
+        <v>108</v>
       </c>
       <c r="B9" s="21" t="s">
         <v>3</v>
@@ -1982,13 +1993,12 @@
         <v>4</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="E9" s="2"/>
+        <v>12</v>
+      </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1">
       <c r="A10" s="21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="21" t="s">
         <v>3</v>
@@ -1997,12 +2007,13 @@
         <v>4</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>12</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1">
       <c r="A11" s="21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" s="21" t="s">
         <v>3</v>
@@ -2016,7 +2027,7 @@
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1">
       <c r="A12" s="21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" s="21" t="s">
         <v>3</v>
@@ -2030,7 +2041,7 @@
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1">
       <c r="A13" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" s="21" t="s">
         <v>3</v>
@@ -2044,7 +2055,7 @@
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1">
       <c r="A14" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="21" t="s">
         <v>3</v>
@@ -2058,7 +2069,7 @@
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1">
       <c r="A15" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B15" s="21" t="s">
         <v>3</v>
@@ -2072,7 +2083,7 @@
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1">
       <c r="A16" s="21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B16" s="21" t="s">
         <v>3</v>
@@ -2086,15 +2097,29 @@
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1">
       <c r="A17" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" customHeight="1">
+      <c r="A18" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="B17" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" s="21" t="s">
+      <c r="B18" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="21" t="s">
         <v>12</v>
       </c>
     </row>

--- a/OTCRecommendations.xlsx
+++ b/OTCRecommendations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amirbhd/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9D4B893-6306-C742-98F8-381B59A1F3EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A0E8448-3D44-5645-AA9E-0CFD0DD9A118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12660" yWindow="1000" windowWidth="19200" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11040" yWindow="800" windowWidth="19200" windowHeight="17540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GERD" sheetId="3" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="111">
   <si>
     <t>Option 1</t>
   </si>
@@ -191,9 +191,6 @@
     <t>Age condition</t>
   </si>
   <si>
-    <t>Age &lt; 2</t>
-  </si>
-  <si>
     <t>Age &gt; 2 and Age &lt; 4</t>
   </si>
   <si>
@@ -251,15 +248,6 @@
     <t>2,3,4,5,6,7,9,10,11,12</t>
   </si>
   <si>
-    <t>Age &gt; 18 and Age &lt; 65</t>
-  </si>
-  <si>
-    <t>Age &gt; 12 and Age &lt; 18</t>
-  </si>
-  <si>
-    <t>Age &gt; 2 and Age &lt; 12</t>
-  </si>
-  <si>
     <t>1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11</t>
   </si>
   <si>
@@ -354,6 +342,21 @@
   </si>
   <si>
     <t>Have you experienced trouble or pain when swallowing food?</t>
+  </si>
+  <si>
+    <t>Age &gt; 64.5</t>
+  </si>
+  <si>
+    <t>Age &gt; 17.5 and Age &lt; 64.5</t>
+  </si>
+  <si>
+    <t>Age &gt; 11.5 and Age &lt; 17.5</t>
+  </si>
+  <si>
+    <t>Age &lt; 2.5</t>
+  </si>
+  <si>
+    <t>Age &gt; 1.5 and Age &lt; 11.5</t>
   </si>
 </sst>
 </file>
@@ -763,7 +766,7 @@
   </sheetPr>
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
@@ -833,7 +836,7 @@
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1">
       <c r="A5" s="21" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B5" s="21" t="s">
         <v>3</v>
@@ -945,7 +948,7 @@
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1">
       <c r="A13" s="21" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B13" s="21" t="s">
         <v>3</v>
@@ -959,7 +962,7 @@
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1">
       <c r="A14" s="21" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B14" s="21" t="s">
         <v>3</v>
@@ -973,7 +976,7 @@
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1">
       <c r="A15" s="21" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B15" s="21" t="s">
         <v>3</v>
@@ -1069,7 +1072,7 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1125,7 +1128,7 @@
         <v>54</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C4" s="21" t="s">
         <v>4</v>
@@ -1140,7 +1143,7 @@
         <v>54</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C5" s="21" t="s">
         <v>4</v>
@@ -1155,7 +1158,7 @@
         <v>54</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C6" s="21" t="s">
         <v>4</v>
@@ -1170,7 +1173,7 @@
         <v>54</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C7" s="21" t="s">
         <v>4</v>
@@ -1302,7 +1305,7 @@
     </row>
     <row r="16" spans="1:6" ht="15.75" customHeight="1">
       <c r="A16" s="21" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B16" s="21" t="s">
         <v>3</v>
@@ -1317,7 +1320,7 @@
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1">
       <c r="A17" s="21" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B17" s="21" t="s">
         <v>3</v>
@@ -1335,7 +1338,7 @@
         <v>54</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C18" s="21" t="s">
         <v>4</v>
@@ -1534,13 +1537,14 @@
   </sheetPr>
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1">
@@ -1570,13 +1574,13 @@
         <v>54</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>58</v>
+        <v>106</v>
       </c>
       <c r="C3" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="21" t="s">
         <v>60</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1">
@@ -1584,13 +1588,13 @@
         <v>54</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1">
@@ -1598,13 +1602,13 @@
         <v>54</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1">
@@ -1612,13 +1616,13 @@
         <v>54</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1">
@@ -1626,10 +1630,10 @@
         <v>54</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>55</v>
+        <v>109</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D7" s="21" t="s">
         <v>12</v>
@@ -1637,83 +1641,83 @@
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1">
       <c r="A8" s="21" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B8" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="21" t="s">
-        <v>60</v>
-      </c>
       <c r="D8" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1">
       <c r="A9" s="21" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B9" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="C9" s="21" t="s">
-        <v>60</v>
-      </c>
       <c r="D9" s="21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1">
       <c r="A10" s="21" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B10" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="21" t="s">
-        <v>60</v>
-      </c>
       <c r="D10" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1">
       <c r="A11" s="21" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B11" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="21" t="s">
-        <v>60</v>
-      </c>
       <c r="D11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1">
       <c r="A12" s="21" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B12" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="21" t="s">
-        <v>60</v>
-      </c>
       <c r="D12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1">
       <c r="A13" s="21" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B13" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="21" t="s">
         <v>59</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>60</v>
       </c>
       <c r="D13">
         <v>12</v>
@@ -1721,41 +1725,41 @@
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1">
       <c r="A14" s="21" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B14" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="21" t="s">
-        <v>60</v>
-      </c>
       <c r="D14" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1">
       <c r="A15" s="21" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B15" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="21" t="s">
-        <v>60</v>
-      </c>
       <c r="D15" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1">
       <c r="A16" s="21" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B16" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="21" t="s">
         <v>59</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>60</v>
       </c>
       <c r="D16" s="21" t="s">
         <v>12</v>
@@ -1763,13 +1767,13 @@
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1">
       <c r="A17" s="21" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B17" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="21" t="s">
         <v>59</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>60</v>
       </c>
       <c r="D17" s="21">
         <v>1</v>
@@ -1777,69 +1781,69 @@
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1">
       <c r="A18" s="21" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B18" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="C18" s="21" t="s">
-        <v>60</v>
-      </c>
       <c r="D18" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1">
       <c r="A19" s="21" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B19" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="C19" s="21" t="s">
-        <v>60</v>
-      </c>
       <c r="D19" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" customHeight="1">
       <c r="A20" s="21" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B20" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="21" t="s">
-        <v>60</v>
-      </c>
       <c r="D20" s="21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1">
       <c r="A21" s="21" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B21" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="21" t="s">
-        <v>60</v>
-      </c>
       <c r="D21" s="21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1">
       <c r="A22" s="21" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B22" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="21" t="s">
         <v>59</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>60</v>
       </c>
       <c r="D22" s="21" t="s">
         <v>12</v>
@@ -1895,12 +1899,12 @@
         <v>4</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1">
       <c r="A3" s="21" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B3" s="21" t="s">
         <v>3</v>
@@ -1909,7 +1913,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1">
@@ -1923,7 +1927,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1">
@@ -1937,12 +1941,12 @@
         <v>4</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1">
       <c r="A6" s="21" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B6" s="21" t="s">
         <v>3</v>
@@ -1951,7 +1955,7 @@
         <v>4</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1">
@@ -1965,12 +1969,12 @@
         <v>4</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1">
       <c r="A8" s="21" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B8" s="21" t="s">
         <v>3</v>
@@ -1984,7 +1988,7 @@
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1">
       <c r="A9" s="21" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B9" s="21" t="s">
         <v>3</v>
@@ -2007,7 +2011,7 @@
         <v>4</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E10" s="2"/>
     </row>

--- a/OTCRecommendations.xlsx
+++ b/OTCRecommendations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amirbhd/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A0E8448-3D44-5645-AA9E-0CFD0DD9A118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADA581EA-DF1A-9345-9680-D56794F080DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11040" yWindow="800" windowWidth="19200" windowHeight="17540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8420" yWindow="2100" windowWidth="19200" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GERD" sheetId="3" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="112">
   <si>
     <t>Option 1</t>
   </si>
@@ -185,16 +185,10 @@
     <t>Please enter your age:</t>
   </si>
   <si>
-    <t>Age &gt; 12</t>
-  </si>
-  <si>
     <t>Age condition</t>
   </si>
   <si>
-    <t>Age &gt; 2 and Age &lt; 4</t>
-  </si>
-  <si>
-    <t>Age &gt; 6 and Age &lt; 12</t>
+    <t>Age &lt; 2</t>
   </si>
   <si>
     <t>Age &gt; 65</t>
@@ -272,9 +266,6 @@
     <t>2,5,8</t>
   </si>
   <si>
-    <t>Age &lt; 2.1</t>
-  </si>
-  <si>
     <t>Do you have recurrent nose bleeds?</t>
   </si>
   <si>
@@ -357,6 +348,18 @@
   </si>
   <si>
     <t>Age &gt; 1.5 and Age &lt; 11.5</t>
+  </si>
+  <si>
+    <t>Age &gt; 11.9</t>
+  </si>
+  <si>
+    <t>Age &gt; 3.9 and Age &lt; 6</t>
+  </si>
+  <si>
+    <t>Age &gt; 5.9 and Age &lt; 12</t>
+  </si>
+  <si>
+    <t>Age &gt; 1.9 and Age &lt; 4</t>
   </si>
 </sst>
 </file>
@@ -492,7 +495,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -546,6 +549,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -836,7 +842,7 @@
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1">
       <c r="A5" s="21" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B5" s="21" t="s">
         <v>3</v>
@@ -948,7 +954,7 @@
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1">
       <c r="A13" s="21" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B13" s="21" t="s">
         <v>3</v>
@@ -962,7 +968,7 @@
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1">
       <c r="A14" s="21" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B14" s="21" t="s">
         <v>3</v>
@@ -976,7 +982,7 @@
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1">
       <c r="A15" s="21" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B15" s="21" t="s">
         <v>3</v>
@@ -1071,8 +1077,8 @@
   </sheetPr>
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1109,10 +1115,10 @@
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>53</v>
+        <v>108</v>
       </c>
       <c r="C3" s="21" t="s">
         <v>4</v>
@@ -1125,10 +1131,10 @@
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="21" t="s">
         <v>54</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>82</v>
       </c>
       <c r="C4" s="21" t="s">
         <v>4</v>
@@ -1140,25 +1146,25 @@
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>55</v>
+        <v>111</v>
       </c>
       <c r="C5" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="23">
         <v>8</v>
       </c>
       <c r="E5" s="10"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="A6" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>55</v>
+        <v>109</v>
       </c>
       <c r="C6" s="21" t="s">
         <v>4</v>
@@ -1170,10 +1176,10 @@
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="A7" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>56</v>
+        <v>110</v>
       </c>
       <c r="C7" s="21" t="s">
         <v>4</v>
@@ -1305,7 +1311,7 @@
     </row>
     <row r="16" spans="1:6" ht="15.75" customHeight="1">
       <c r="A16" s="21" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B16" s="21" t="s">
         <v>3</v>
@@ -1320,7 +1326,7 @@
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1">
       <c r="A17" s="21" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B17" s="21" t="s">
         <v>3</v>
@@ -1335,10 +1341,10 @@
     </row>
     <row r="18" spans="1:6" ht="15.75" customHeight="1">
       <c r="A18" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C18" s="21" t="s">
         <v>4</v>
@@ -1537,7 +1543,7 @@
   </sheetPr>
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -1571,69 +1577,69 @@
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1">
       <c r="A3" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1">
       <c r="A4" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C4" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="21" t="s">
         <v>59</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1">
       <c r="A5" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1">
       <c r="A6" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1">
       <c r="A7" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D7" s="21" t="s">
         <v>12</v>
@@ -1641,83 +1647,83 @@
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1">
       <c r="A8" s="21" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1">
       <c r="A9" s="21" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1">
       <c r="A10" s="21" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1">
       <c r="A11" s="21" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1">
       <c r="A12" s="21" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D12" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1">
       <c r="A13" s="21" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D13">
         <v>12</v>
@@ -1725,41 +1731,41 @@
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1">
       <c r="A14" s="21" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1">
       <c r="A15" s="21" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1">
       <c r="A16" s="21" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D16" s="21" t="s">
         <v>12</v>
@@ -1767,13 +1773,13 @@
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1">
       <c r="A17" s="21" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D17" s="21">
         <v>1</v>
@@ -1781,69 +1787,69 @@
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1">
       <c r="A18" s="21" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1">
       <c r="A19" s="21" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" customHeight="1">
       <c r="A20" s="21" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1">
       <c r="A21" s="21" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1">
       <c r="A22" s="21" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D22" s="21" t="s">
         <v>12</v>
@@ -1899,12 +1905,12 @@
         <v>4</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1">
       <c r="A3" s="21" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B3" s="21" t="s">
         <v>3</v>
@@ -1913,7 +1919,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1">
@@ -1927,7 +1933,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1">
@@ -1941,12 +1947,12 @@
         <v>4</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1">
       <c r="A6" s="21" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B6" s="21" t="s">
         <v>3</v>
@@ -1955,7 +1961,7 @@
         <v>4</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1">
@@ -1969,12 +1975,12 @@
         <v>4</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1">
       <c r="A8" s="21" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B8" s="21" t="s">
         <v>3</v>
@@ -1988,7 +1994,7 @@
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1">
       <c r="A9" s="21" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B9" s="21" t="s">
         <v>3</v>
@@ -2011,7 +2017,7 @@
         <v>4</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E10" s="2"/>
     </row>

--- a/OTCRecommendations.xlsx
+++ b/OTCRecommendations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amirbhd/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADA581EA-DF1A-9345-9680-D56794F080DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD55EA7D-9F25-3944-92FA-461FEF92038A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8420" yWindow="2100" windowWidth="19200" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7940" yWindow="760" windowWidth="19200" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GERD" sheetId="3" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="110">
   <si>
     <t>Option 1</t>
   </si>
@@ -192,12 +192,6 @@
   </si>
   <si>
     <t>Age &gt; 65</t>
-  </si>
-  <si>
-    <t>yes</t>
-  </si>
-  <si>
-    <t>no</t>
   </si>
   <si>
     <t>1,4,5,6,7,8,9,10,11,12</t>
@@ -772,7 +766,7 @@
   </sheetPr>
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
@@ -842,7 +836,7 @@
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1">
       <c r="A5" s="21" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B5" s="21" t="s">
         <v>3</v>
@@ -954,7 +948,7 @@
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1">
       <c r="A13" s="21" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B13" s="21" t="s">
         <v>3</v>
@@ -968,7 +962,7 @@
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1">
       <c r="A14" s="21" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B14" s="21" t="s">
         <v>3</v>
@@ -982,7 +976,7 @@
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1">
       <c r="A15" s="21" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B15" s="21" t="s">
         <v>3</v>
@@ -1077,8 +1071,8 @@
   </sheetPr>
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1118,7 +1112,7 @@
         <v>53</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C3" s="21" t="s">
         <v>4</v>
@@ -1149,7 +1143,7 @@
         <v>53</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C5" s="21" t="s">
         <v>4</v>
@@ -1164,7 +1158,7 @@
         <v>53</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C6" s="21" t="s">
         <v>4</v>
@@ -1179,7 +1173,7 @@
         <v>53</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C7" s="21" t="s">
         <v>4</v>
@@ -1311,7 +1305,7 @@
     </row>
     <row r="16" spans="1:6" ht="15.75" customHeight="1">
       <c r="A16" s="21" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B16" s="21" t="s">
         <v>3</v>
@@ -1326,7 +1320,7 @@
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1">
       <c r="A17" s="21" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B17" s="21" t="s">
         <v>3</v>
@@ -1541,10 +1535,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1580,13 +1574,13 @@
         <v>53</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1">
@@ -1594,13 +1588,13 @@
         <v>53</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C4" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="21" t="s">
         <v>57</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1">
@@ -1608,13 +1602,13 @@
         <v>53</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1">
@@ -1622,13 +1616,13 @@
         <v>53</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1">
@@ -1636,10 +1630,10 @@
         <v>53</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="D7" s="21" t="s">
         <v>12</v>
@@ -1647,83 +1641,83 @@
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1">
       <c r="A8" s="21" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1">
       <c r="A9" s="21" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B9" s="21" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1">
       <c r="A10" s="21" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1">
       <c r="A11" s="21" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1">
       <c r="A12" s="21" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1">
       <c r="A13" s="21" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="D13">
         <v>12</v>
@@ -1731,41 +1725,41 @@
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1">
       <c r="A14" s="21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1">
       <c r="A15" s="21" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1">
       <c r="A16" s="21" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="D16" s="21" t="s">
         <v>12</v>
@@ -1773,13 +1767,13 @@
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1">
       <c r="A17" s="21" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="D17" s="21">
         <v>1</v>
@@ -1787,69 +1781,69 @@
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1">
       <c r="A18" s="21" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1">
       <c r="A19" s="21" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="C19" s="21" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" customHeight="1">
       <c r="A20" s="21" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1">
       <c r="A21" s="21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="C21" s="21" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1">
       <c r="A22" s="21" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>56</v>
+        <v>3</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>57</v>
+        <v>4</v>
       </c>
       <c r="D22" s="21" t="s">
         <v>12</v>
@@ -1857,6 +1851,19 @@
     </row>
     <row r="23" spans="1:4" ht="15.75" customHeight="1">
       <c r="A23" s="22"/>
+      <c r="B23" s="21"/>
+    </row>
+    <row r="24" spans="1:4" ht="15.75" customHeight="1">
+      <c r="B24" s="21"/>
+    </row>
+    <row r="25" spans="1:4" ht="15.75" customHeight="1">
+      <c r="B25" s="21"/>
+    </row>
+    <row r="26" spans="1:4" ht="15.75" customHeight="1">
+      <c r="B26" s="21"/>
+    </row>
+    <row r="27" spans="1:4" ht="15.75" customHeight="1">
+      <c r="B27" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1905,12 +1912,12 @@
         <v>4</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1">
       <c r="A3" s="21" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B3" s="21" t="s">
         <v>3</v>
@@ -1919,7 +1926,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1">
@@ -1933,7 +1940,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1">
@@ -1947,12 +1954,12 @@
         <v>4</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1">
       <c r="A6" s="21" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B6" s="21" t="s">
         <v>3</v>
@@ -1961,7 +1968,7 @@
         <v>4</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1">
@@ -1975,12 +1982,12 @@
         <v>4</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1">
       <c r="A8" s="21" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B8" s="21" t="s">
         <v>3</v>
@@ -1994,7 +2001,7 @@
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1">
       <c r="A9" s="21" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B9" s="21" t="s">
         <v>3</v>
@@ -2017,7 +2024,7 @@
         <v>4</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E10" s="2"/>
     </row>

--- a/OTCRecommendations.xlsx
+++ b/OTCRecommendations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amirbhd/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD55EA7D-9F25-3944-92FA-461FEF92038A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{162D4203-3CCA-D042-8479-3D64EB8E1335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7940" yWindow="760" windowWidth="19200" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7940" yWindow="760" windowWidth="19200" windowHeight="17540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GERD" sheetId="3" r:id="rId1"/>
@@ -338,9 +338,6 @@
     <t>Age &gt; 11.5 and Age &lt; 17.5</t>
   </si>
   <si>
-    <t>Age &lt; 2.5</t>
-  </si>
-  <si>
     <t>Age &gt; 1.5 and Age &lt; 11.5</t>
   </si>
   <si>
@@ -354,6 +351,9 @@
   </si>
   <si>
     <t>Age &gt; 1.9 and Age &lt; 4</t>
+  </si>
+  <si>
+    <t>Age &lt; 1.5</t>
   </si>
 </sst>
 </file>
@@ -766,7 +766,7 @@
   </sheetPr>
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
@@ -1112,7 +1112,7 @@
         <v>53</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C3" s="21" t="s">
         <v>4</v>
@@ -1143,7 +1143,7 @@
         <v>53</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C5" s="21" t="s">
         <v>4</v>
@@ -1158,7 +1158,7 @@
         <v>53</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C6" s="21" t="s">
         <v>4</v>
@@ -1173,7 +1173,7 @@
         <v>53</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C7" s="21" t="s">
         <v>4</v>
@@ -1537,8 +1537,8 @@
   </sheetPr>
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1616,7 +1616,7 @@
         <v>53</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C6" s="21" t="s">
         <v>4</v>
@@ -1630,7 +1630,7 @@
         <v>53</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C7" s="21" t="s">
         <v>4</v>

--- a/OTCRecommendations.xlsx
+++ b/OTCRecommendations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amirbhd/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{162D4203-3CCA-D042-8479-3D64EB8E1335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BC5AB5B-C988-D44E-BC9E-E5AF7B2A8DAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7940" yWindow="760" windowWidth="19200" windowHeight="17540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -290,9 +290,6 @@
     <t>Are you experiencing muscular pain? </t>
   </si>
   <si>
-    <t xml:space="preserve">Are you experiencing neuropathic pain (coming from nerves), visceral pain (coming from internal organs), or excruciating pain? </t>
-  </si>
-  <si>
     <t>Are you pregnant? </t>
   </si>
   <si>
@@ -354,6 +351,9 @@
   </si>
   <si>
     <t>Age &lt; 1.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are you experiencing neuropathic pain (coming from nerves), visceral pain (coming from internal organs), excruciating pain, or chest pain? </t>
   </si>
 </sst>
 </file>
@@ -836,7 +836,7 @@
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1">
       <c r="A5" s="21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B5" s="21" t="s">
         <v>3</v>
@@ -948,7 +948,7 @@
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1">
       <c r="A13" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B13" s="21" t="s">
         <v>3</v>
@@ -962,7 +962,7 @@
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1">
       <c r="A14" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B14" s="21" t="s">
         <v>3</v>
@@ -976,7 +976,7 @@
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1">
       <c r="A15" s="21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B15" s="21" t="s">
         <v>3</v>
@@ -1112,7 +1112,7 @@
         <v>53</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C3" s="21" t="s">
         <v>4</v>
@@ -1143,7 +1143,7 @@
         <v>53</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C5" s="21" t="s">
         <v>4</v>
@@ -1158,7 +1158,7 @@
         <v>53</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C6" s="21" t="s">
         <v>4</v>
@@ -1173,7 +1173,7 @@
         <v>53</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C7" s="21" t="s">
         <v>4</v>
@@ -1538,7 +1538,7 @@
   <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1574,7 +1574,7 @@
         <v>53</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C3" s="21" t="s">
         <v>4</v>
@@ -1588,7 +1588,7 @@
         <v>53</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C4" s="21" t="s">
         <v>4</v>
@@ -1602,7 +1602,7 @@
         <v>53</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C5" s="21" t="s">
         <v>4</v>
@@ -1616,7 +1616,7 @@
         <v>53</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C6" s="21" t="s">
         <v>4</v>
@@ -1630,7 +1630,7 @@
         <v>53</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C7" s="21" t="s">
         <v>4</v>
@@ -1753,7 +1753,7 @@
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1">
       <c r="A16" s="21" t="s">
-        <v>88</v>
+        <v>109</v>
       </c>
       <c r="B16" s="21" t="s">
         <v>3</v>
@@ -1767,7 +1767,7 @@
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1">
       <c r="A17" s="21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B17" s="21" t="s">
         <v>3</v>
@@ -1781,7 +1781,7 @@
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1">
       <c r="A18" s="21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B18" s="21" t="s">
         <v>3</v>
@@ -1795,7 +1795,7 @@
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1">
       <c r="A19" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B19" s="21" t="s">
         <v>3</v>
@@ -1809,7 +1809,7 @@
     </row>
     <row r="20" spans="1:4" ht="15.75" customHeight="1">
       <c r="A20" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B20" s="21" t="s">
         <v>3</v>
@@ -1823,7 +1823,7 @@
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1">
       <c r="A21" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B21" s="21" t="s">
         <v>3</v>
@@ -1837,7 +1837,7 @@
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1">
       <c r="A22" s="21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B22" s="21" t="s">
         <v>3</v>
@@ -1917,7 +1917,7 @@
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1">
       <c r="A3" s="21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B3" s="21" t="s">
         <v>3</v>
@@ -2001,7 +2001,7 @@
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1">
       <c r="A9" s="21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B9" s="21" t="s">
         <v>3</v>

--- a/OTCRecommendations.xlsx
+++ b/OTCRecommendations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amirbhd/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BC5AB5B-C988-D44E-BC9E-E5AF7B2A8DAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B834386B-9EC6-CD47-A8B0-0222780A338A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7940" yWindow="760" windowWidth="19200" windowHeight="17540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7940" yWindow="760" windowWidth="19200" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GERD" sheetId="3" r:id="rId1"/>
@@ -149,9 +149,6 @@
     <t>Are you currently taking any medications that contain rilpivirine, an HIV-1 treatment drug?</t>
   </si>
   <si>
-    <t>5, 8</t>
-  </si>
-  <si>
     <t>Are you breastfeeding?</t>
   </si>
   <si>
@@ -354,6 +351,9 @@
   </si>
   <si>
     <t xml:space="preserve">Are you experiencing neuropathic pain (coming from nerves), visceral pain (coming from internal organs), excruciating pain, or chest pain? </t>
+  </si>
+  <si>
+    <t>3, 7</t>
   </si>
 </sst>
 </file>
@@ -780,7 +780,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -836,7 +836,7 @@
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1">
       <c r="A5" s="21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B5" s="21" t="s">
         <v>3</v>
@@ -948,7 +948,7 @@
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1">
       <c r="A13" s="21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B13" s="21" t="s">
         <v>3</v>
@@ -962,7 +962,7 @@
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1">
       <c r="A14" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B14" s="21" t="s">
         <v>3</v>
@@ -976,7 +976,7 @@
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1">
       <c r="A15" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B15" s="21" t="s">
         <v>3</v>
@@ -1071,8 +1071,8 @@
   </sheetPr>
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:B17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1086,7 +1086,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1100,7 +1100,7 @@
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
@@ -1109,10 +1109,10 @@
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C3" s="21" t="s">
         <v>4</v>
@@ -1125,10 +1125,10 @@
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="21" t="s">
         <v>53</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>54</v>
       </c>
       <c r="C4" s="21" t="s">
         <v>4</v>
@@ -1140,40 +1140,40 @@
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C5" s="21" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="23">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E5" s="10"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="A6" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C6" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="21" t="s">
-        <v>41</v>
+      <c r="D6" s="23" t="s">
+        <v>109</v>
       </c>
       <c r="E6" s="10"/>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="A7" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C7" s="21" t="s">
         <v>4</v>
@@ -1200,7 +1200,7 @@
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1">
       <c r="A9" s="21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B9" s="21" t="s">
         <v>3</v>
@@ -1245,37 +1245,37 @@
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1">
       <c r="A12" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="21" t="s">
         <v>43</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>44</v>
       </c>
       <c r="E12" s="10"/>
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1">
       <c r="A13" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="21" t="s">
         <v>45</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>46</v>
       </c>
       <c r="E13" s="10"/>
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1">
       <c r="A14" s="21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B14" s="21" t="s">
         <v>3</v>
@@ -1290,7 +1290,7 @@
     </row>
     <row r="15" spans="1:6" ht="15.75" customHeight="1">
       <c r="A15" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B15" s="21" t="s">
         <v>3</v>
@@ -1305,7 +1305,7 @@
     </row>
     <row r="16" spans="1:6" ht="15.75" customHeight="1">
       <c r="A16" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B16" s="21" t="s">
         <v>3</v>
@@ -1320,7 +1320,7 @@
     </row>
     <row r="17" spans="1:6" ht="15.75" customHeight="1">
       <c r="A17" s="21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B17" s="21" t="s">
         <v>3</v>
@@ -1335,10 +1335,10 @@
     </row>
     <row r="18" spans="1:6" ht="15.75" customHeight="1">
       <c r="A18" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B18" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C18" s="21" t="s">
         <v>4</v>
@@ -1350,7 +1350,7 @@
     </row>
     <row r="19" spans="1:6" ht="15.75" customHeight="1">
       <c r="A19" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B19" s="21" t="s">
         <v>3</v>
@@ -1365,7 +1365,7 @@
     </row>
     <row r="20" spans="1:6" ht="15.75" customHeight="1">
       <c r="A20" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B20" s="21" t="s">
         <v>3</v>
@@ -1537,7 +1537,7 @@
   </sheetPr>
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
@@ -1549,7 +1549,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1">
       <c r="A1" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B1" s="20" t="s">
         <v>0</v>
@@ -1563,7 +1563,7 @@
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1">
       <c r="A2" s="21" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B2" s="20"/>
       <c r="C2" s="20"/>
@@ -1571,66 +1571,66 @@
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1">
       <c r="A3" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B3" s="21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C3" s="21" t="s">
         <v>4</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1">
       <c r="A4" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C4" s="21" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1">
       <c r="A5" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C5" s="21" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1">
       <c r="A6" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B6" s="21" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C6" s="21" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1">
       <c r="A7" s="21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C7" s="21" t="s">
         <v>4</v>
@@ -1641,7 +1641,7 @@
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1">
       <c r="A8" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B8" s="21" t="s">
         <v>3</v>
@@ -1650,12 +1650,12 @@
         <v>4</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1">
       <c r="A9" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B9" s="21" t="s">
         <v>3</v>
@@ -1664,12 +1664,12 @@
         <v>4</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1">
       <c r="A10" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B10" s="21" t="s">
         <v>3</v>
@@ -1678,12 +1678,12 @@
         <v>4</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1">
       <c r="A11" s="21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B11" s="21" t="s">
         <v>3</v>
@@ -1692,12 +1692,12 @@
         <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1">
       <c r="A12" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B12" s="21" t="s">
         <v>3</v>
@@ -1706,12 +1706,12 @@
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1">
       <c r="A13" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B13" s="21" t="s">
         <v>3</v>
@@ -1725,7 +1725,7 @@
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1">
       <c r="A14" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B14" s="21" t="s">
         <v>3</v>
@@ -1734,12 +1734,12 @@
         <v>4</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1">
       <c r="A15" s="21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B15" s="21" t="s">
         <v>3</v>
@@ -1748,12 +1748,12 @@
         <v>4</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1">
       <c r="A16" s="21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B16" s="21" t="s">
         <v>3</v>
@@ -1767,7 +1767,7 @@
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1">
       <c r="A17" s="21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B17" s="21" t="s">
         <v>3</v>
@@ -1781,7 +1781,7 @@
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1">
       <c r="A18" s="21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B18" s="21" t="s">
         <v>3</v>
@@ -1790,12 +1790,12 @@
         <v>4</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1">
       <c r="A19" s="21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B19" s="21" t="s">
         <v>3</v>
@@ -1804,12 +1804,12 @@
         <v>4</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" customHeight="1">
       <c r="A20" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B20" s="21" t="s">
         <v>3</v>
@@ -1818,12 +1818,12 @@
         <v>4</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1">
       <c r="A21" s="21" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B21" s="21" t="s">
         <v>3</v>
@@ -1832,12 +1832,12 @@
         <v>4</v>
       </c>
       <c r="D21" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1">
       <c r="A22" s="21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B22" s="21" t="s">
         <v>3</v>
@@ -1889,7 +1889,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" customHeight="1">
       <c r="A1" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B1" s="20" t="s">
         <v>0</v>
@@ -1912,12 +1912,12 @@
         <v>4</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1">
       <c r="A3" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B3" s="21" t="s">
         <v>3</v>
@@ -1926,7 +1926,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1">
@@ -1940,7 +1940,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1">
@@ -1954,21 +1954,21 @@
         <v>4</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1">
       <c r="A6" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="21" t="s">
         <v>73</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1">
@@ -1982,12 +1982,12 @@
         <v>4</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1">
       <c r="A8" s="21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B8" s="21" t="s">
         <v>3</v>
@@ -2001,7 +2001,7 @@
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1">
       <c r="A9" s="21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B9" s="21" t="s">
         <v>3</v>
@@ -2024,7 +2024,7 @@
         <v>4</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E10" s="2"/>
     </row>
